--- a/const/exps.xlsx
+++ b/const/exps.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="0" windowWidth="27620" windowHeight="17220"/>
+    <workbookView xWindow="140" yWindow="0" windowWidth="26400" windowHeight="15280" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="player_upgrade_exp" sheetId="1" r:id="rId1"/>
-    <sheet name="monster_exp" sheetId="3" r:id="rId2"/>
-    <sheet name="build_exp" sheetId="7" r:id="rId3"/>
-    <sheet name="research_exp" sheetId="9" r:id="rId4"/>
-    <sheet name="pvp_exp" sheetId="6" r:id="rId5"/>
-    <sheet name="dino_upgrade_exp" sheetId="8" r:id="rId6"/>
-    <sheet name="task_exp" sheetId="10" r:id="rId7"/>
-    <sheet name="test" sheetId="2" r:id="rId8"/>
+    <sheet name="test" sheetId="2" r:id="rId2"/>
+    <sheet name="monster_exp" sheetId="3" r:id="rId3"/>
+    <sheet name="pvp_exp" sheetId="6" r:id="rId4"/>
+    <sheet name="build_exp" sheetId="7" r:id="rId5"/>
+    <sheet name="research_exp" sheetId="9" r:id="rId6"/>
+    <sheet name="dino_upgrade_exp" sheetId="8" r:id="rId7"/>
+    <sheet name="task_exp" sheetId="10" r:id="rId8"/>
     <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
     <sheet name="Sheet2" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
   <si>
     <t>k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -153,6 +153,10 @@
     <t>敏捷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>xp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -271,7 +275,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -628,11 +631,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159614824"/>
-        <c:axId val="204742632"/>
+        <c:axId val="204771352"/>
+        <c:axId val="204847816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159614824"/>
+        <c:axId val="204771352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,12 +645,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204742632"/>
+        <c:crossAx val="204847816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204742632"/>
+        <c:axId val="204847816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -658,14 +661,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159614824"/>
+        <c:crossAx val="204771352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -681,6 +683,753 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test!$B$2:$B$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>200.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1000.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1700.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2600.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3700.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5000.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6500.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8200.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10100.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12200.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>14500.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17000.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19700.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22600.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>25700.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29000.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>32500.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36200.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>40100.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44200.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48500.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53000.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>57700.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>62600.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>67700.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>73000.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>78500.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>84200.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>90100.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>96200.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>102500.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>109000.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>115700.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>122600.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>129700.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>137000.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>144500.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>152200.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>160100.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>168200.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>176500.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>185000.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>193700.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>202600.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>211700.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>221000.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>230500.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>240200.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>250100.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>test!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>y3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>test!$A$2:$A$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>test!$D$2:$D$51</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="50"/>
+                <c:pt idx="0">
+                  <c:v>250.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1150.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1900.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2850.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5350.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6900.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8650.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10600.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12750.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>15100.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>17650.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20400.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>23350.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>26500.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29850.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>33400.0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>37150.0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>41100.0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45250.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49600.0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>54150.0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>58900.0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>63850.0</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>69000.0</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>74350.0</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79900.0</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>85650.0</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>91600.0</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>97750.0</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>104100.0</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>110650.0</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>117400.0</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>124350.0</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>131500.0</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>138850.0</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>146400.0</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>154150.0</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>162100.0</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>170250.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>178600.0</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>187150.0</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>195900.0</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>204850.0</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>214000.0</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>223350.0</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>232900.0</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>242650.0</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>252600.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="542550536"/>
+        <c:axId val="542553528"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="542550536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="542553528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="542553528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="542550536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-CN"/>
@@ -710,7 +1459,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1061,11 +1809,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="206357336"/>
-        <c:axId val="206369832"/>
+        <c:axId val="909941272"/>
+        <c:axId val="139602056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="206357336"/>
+        <c:axId val="909941272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1075,12 +1823,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206369832"/>
+        <c:crossAx val="139602056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="206369832"/>
+        <c:axId val="139602056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1091,438 +1839,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="206357336"/>
+        <c:crossAx val="909941272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="smoothMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>dino_upgrade_exp!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>dino_upgrade_exp!$A$2:$A$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>dino_upgrade_exp!$B$2:$B$52</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="51"/>
-                <c:pt idx="0">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>110.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>190.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>290.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>410.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>550.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>710.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>890.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1090.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1310.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1550.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1810.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2090.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2390.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2710.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3050.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3410.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3790.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4190.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>4610.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5050.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>5510.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>5990.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6490.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7010.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7550.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8110.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8690.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9290.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9910.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10550.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>11210.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>11890.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>12590.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>13310.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>14050.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>14810.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>15590.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>16390.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>17210.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>18050.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>18910.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>19790.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>20690.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>21610.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>22550.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>23510.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>24490.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>25490.0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>26510.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="205980184"/>
-        <c:axId val="205742344"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="205980184"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205742344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="205742344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="205980184"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1551,6 +1874,9 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1562,169 +1888,172 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>test!$B$1</c:f>
+              <c:f>dino_upgrade_exp!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>y1</c:v>
+                  <c:v>y</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>test!$A$2:$A$51</c:f>
+              <c:f>dino_upgrade_exp!$A$2:$A$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>3.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>4.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>5.0</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>6.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>7.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>8.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>9.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>10.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>11.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>12.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>13.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>14.0</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>15.0</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>16.0</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>17.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>18.0</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>19.0</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>20.0</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>21.0</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>22.0</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>23.0</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>24.0</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>25.0</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>26.0</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>27.0</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>28.0</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>29.0</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>30.0</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>31.0</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>32.0</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>33.0</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>34.0</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>35.0</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>36.0</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>37.0</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>38.0</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>39.0</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>40.0</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>41.0</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>42.0</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43.0</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>44.0</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>45.0</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>46.0</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>47.0</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>48.0</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>49.0</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>50.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1732,493 +2061,162 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>test!$B$2:$B$51</c:f>
+              <c:f>dino_upgrade_exp!$B$2:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
+                <c:ptCount val="51"/>
                 <c:pt idx="0">
-                  <c:v>200.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>500.0</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1000.0</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1700.0</c:v>
+                  <c:v>190.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2600.0</c:v>
+                  <c:v>290.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3700.0</c:v>
+                  <c:v>410.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5000.0</c:v>
+                  <c:v>550.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6500.0</c:v>
+                  <c:v>710.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>8200.0</c:v>
+                  <c:v>890.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>10100.0</c:v>
+                  <c:v>1090.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12200.0</c:v>
+                  <c:v>1310.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>14500.0</c:v>
+                  <c:v>1550.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17000.0</c:v>
+                  <c:v>1810.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>19700.0</c:v>
+                  <c:v>2090.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22600.0</c:v>
+                  <c:v>2390.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>25700.0</c:v>
+                  <c:v>2710.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29000.0</c:v>
+                  <c:v>3050.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32500.0</c:v>
+                  <c:v>3410.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36200.0</c:v>
+                  <c:v>3790.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40100.0</c:v>
+                  <c:v>4190.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>44200.0</c:v>
+                  <c:v>4610.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48500.0</c:v>
+                  <c:v>5050.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>53000.0</c:v>
+                  <c:v>5510.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>57700.0</c:v>
+                  <c:v>5990.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62600.0</c:v>
+                  <c:v>6490.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>67700.0</c:v>
+                  <c:v>7010.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>73000.0</c:v>
+                  <c:v>7550.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>78500.0</c:v>
+                  <c:v>8110.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>84200.0</c:v>
+                  <c:v>8690.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>90100.0</c:v>
+                  <c:v>9290.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>96200.0</c:v>
+                  <c:v>9910.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>102500.0</c:v>
+                  <c:v>10550.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>109000.0</c:v>
+                  <c:v>11210.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>115700.0</c:v>
+                  <c:v>11890.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>122600.0</c:v>
+                  <c:v>12590.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>129700.0</c:v>
+                  <c:v>13310.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>137000.0</c:v>
+                  <c:v>14050.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>144500.0</c:v>
+                  <c:v>14810.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>152200.0</c:v>
+                  <c:v>15590.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>160100.0</c:v>
+                  <c:v>16390.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>168200.0</c:v>
+                  <c:v>17210.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>176500.0</c:v>
+                  <c:v>18050.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>185000.0</c:v>
+                  <c:v>18910.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>193700.0</c:v>
+                  <c:v>19790.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>202600.0</c:v>
+                  <c:v>20690.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>211700.0</c:v>
+                  <c:v>21610.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>221000.0</c:v>
+                  <c:v>22550.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>230500.0</c:v>
+                  <c:v>23510.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>240200.0</c:v>
+                  <c:v>24490.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>250100.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>test!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>y3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:xVal>
-            <c:numRef>
-              <c:f>test!$A$2:$A$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>11.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>12.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>13.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>14.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>17.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>18.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>19.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>20.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>22.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>23.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>24.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>25.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>26.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>27.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>28.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>29.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>30.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>31.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>32.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>33.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>34.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>35.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>36.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>37.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>38.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>39.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>40.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>42.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>43.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>44.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>45.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>46.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>47.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>48.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>49.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>50.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>test!$D$2:$D$51</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="50"/>
-                <c:pt idx="0">
-                  <c:v>250.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>600.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1150.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1900.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2850.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4000.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5350.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>6900.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8650.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10600.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12750.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>15100.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>17650.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>20400.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>23350.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>26500.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>29850.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>33400.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>37150.0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>41100.0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>45250.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>49600.0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>54150.0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>58900.0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>63850.0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>69000.0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>74350.0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>79900.0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>85650.0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>91600.0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>97750.0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>104100.0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>110650.0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>117400.0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>124350.0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>131500.0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>138850.0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>146400.0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>154150.0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>162100.0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>170250.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>178600.0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>187150.0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>195900.0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>204850.0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>214000.0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>223350.0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>232900.0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>242650.0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>252600.0</c:v>
+                  <c:v>25490.0</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26510.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2233,11 +2231,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="872863128"/>
-        <c:axId val="872865864"/>
+        <c:axId val="910118904"/>
+        <c:axId val="909221976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="872863128"/>
+        <c:axId val="910118904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,12 +2245,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="872865864"/>
+        <c:crossAx val="909221976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="872865864"/>
+        <c:axId val="909221976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,14 +2261,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="872863128"/>
+        <c:crossAx val="910118904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2324,6 +2321,41 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="图表 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
       <xdr:row>5</xdr:row>
@@ -2355,7 +2387,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2373,41 +2405,6 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="8" name="图表 7"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="图表 9"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2714,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4120,10 +4117,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4131,7 +4128,898 @@
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <f>(A2*A2)*100+100</f>
+        <v>200</v>
+      </c>
+      <c r="C2" s="1">
+        <f>A2*A2*A2*100+100</f>
+        <v>200</v>
+      </c>
+      <c r="D2" s="1">
+        <f>A2*A2*100+A2*50+100</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B51" si="0">(A3*A3)*100+100</f>
+        <v>500</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C51" si="1">A3*A3*A3*100+100</f>
+        <v>900</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D51" si="2">A3*A3*100+A3*50+100</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="1"/>
+        <v>2800</v>
+      </c>
+      <c r="D4" s="1">
+        <f>A4*A4*100+A4*50+100</f>
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>1700</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>6500</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="2"/>
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>2600</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>12600</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>2850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>3700</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>21700</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>5000</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>34400</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="2"/>
+        <v>5350</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>6500</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>51300</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="2"/>
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>8200</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>73000</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="2"/>
+        <v>8650</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>10100</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>100100</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="2"/>
+        <v>10600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>12200</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>133200</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="2"/>
+        <v>12750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>14500</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>172900</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="2"/>
+        <v>15100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>17000</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>219800</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="2"/>
+        <v>17650</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>19700</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>274500</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="2"/>
+        <v>20400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>22600</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>337600</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>23350</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>25700</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>409700</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="2"/>
+        <v>26500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>29000</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>491400</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>29850</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>32500</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>583300</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>33400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>36200</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>686000</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>37150</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>40100</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>800100</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>41100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>44200</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="1"/>
+        <v>926200</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>45250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>48500</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="1"/>
+        <v>1064900</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>49600</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>53000</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="1"/>
+        <v>1216800</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>54150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>57700</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="1"/>
+        <v>1382500</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>58900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>62600</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="1"/>
+        <v>1562600</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>63850</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>67700</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="1"/>
+        <v>1757700</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="2"/>
+        <v>69000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>73000</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="1"/>
+        <v>1968400</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="2"/>
+        <v>74350</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>78500</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="1"/>
+        <v>2195300</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="2"/>
+        <v>79900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>84200</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="1"/>
+        <v>2439000</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="2"/>
+        <v>85650</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>90100</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="1"/>
+        <v>2700100</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="2"/>
+        <v>91600</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>96200</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="1"/>
+        <v>2979200</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="2"/>
+        <v>97750</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>102500</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="1"/>
+        <v>3276900</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="2"/>
+        <v>104100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>109000</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="1"/>
+        <v>3593800</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="2"/>
+        <v>110650</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>115700</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="1"/>
+        <v>3930500</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="2"/>
+        <v>117400</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>122600</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="1"/>
+        <v>4287600</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="2"/>
+        <v>124350</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>129700</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="1"/>
+        <v>4665700</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="2"/>
+        <v>131500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>137000</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="1"/>
+        <v>5065400</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="2"/>
+        <v>138850</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>144500</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="1"/>
+        <v>5487300</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="2"/>
+        <v>146400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>152200</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="1"/>
+        <v>5932000</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="2"/>
+        <v>154150</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>160100</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="1"/>
+        <v>6400100</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="2"/>
+        <v>162100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>168200</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="1"/>
+        <v>6892200</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="2"/>
+        <v>170250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <f t="shared" si="0"/>
+        <v>176500</v>
+      </c>
+      <c r="C43" s="1">
+        <f t="shared" si="1"/>
+        <v>7408900</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="2"/>
+        <v>178600</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <f t="shared" si="0"/>
+        <v>185000</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" si="1"/>
+        <v>7950800</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="2"/>
+        <v>187150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <f t="shared" si="0"/>
+        <v>193700</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" si="1"/>
+        <v>8518500</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="2"/>
+        <v>195900</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <f t="shared" si="0"/>
+        <v>202600</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" si="1"/>
+        <v>9112600</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="2"/>
+        <v>204850</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <f t="shared" si="0"/>
+        <v>211700</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" si="1"/>
+        <v>9733700</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="2"/>
+        <v>214000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <f t="shared" si="0"/>
+        <v>221000</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" si="1"/>
+        <v>10382400</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="2"/>
+        <v>223350</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <f t="shared" si="0"/>
+        <v>230500</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" si="1"/>
+        <v>11059300</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="2"/>
+        <v>232900</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <f t="shared" si="0"/>
+        <v>240200</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" si="1"/>
+        <v>11765000</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="2"/>
+        <v>242650</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <f t="shared" si="0"/>
+        <v>250100</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" si="1"/>
+        <v>12500100</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="2"/>
+        <v>252600</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H65" sqref="H64:H65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="5" width="8.83203125" style="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -4147,8 +5035,11 @@
       <c r="E1" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4166,8 +5057,12 @@
         <f>ROUND(D2,0)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1">
+        <f>E2/1</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4185,8 +5080,12 @@
         <f>ROUND(D3,-2)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F11" si="0">E3/1</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4197,15 +5096,19 @@
         <v>26</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D5" si="0">B4*(A4+1)^3+C4</f>
+        <f t="shared" ref="D4:D5" si="1">B4*(A4+1)^3+C4</f>
         <v>218</v>
       </c>
       <c r="E4" s="1">
         <f>ROUND(D4,-2)</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4216,15 +5119,19 @@
         <v>26</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>401</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E51" si="1">ROUND(D5,-2)</f>
+        <f t="shared" ref="E5:E51" si="2">ROUND(D5,-2)</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4235,15 +5142,19 @@
         <v>26</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D51" si="2">B6*(A6+1)^3+C6</f>
+        <f t="shared" ref="D6:D51" si="3">B6*(A6+1)^3+C6</f>
         <v>674</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4254,15 +5165,19 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1055</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4273,15 +5188,19 @@
         <v>26</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1562</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1600</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4292,15 +5211,19 @@
         <v>26</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2213</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2200</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4311,15 +5234,19 @@
         <v>26</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>3026</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4330,15 +5257,19 @@
         <v>26</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4019</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4349,15 +5280,19 @@
         <v>26</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5210</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5200</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1">
+        <f t="shared" ref="F12:F21" si="4">E12/2</f>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4368,15 +5303,19 @@
         <v>26</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>6617</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6600</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1">
+        <f t="shared" si="4"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4387,15 +5326,19 @@
         <v>26</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8258</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8300</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1">
+        <f t="shared" si="4"/>
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4406,15 +5349,19 @@
         <v>26</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10151</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10200</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1">
+        <f t="shared" si="4"/>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4425,15 +5372,19 @@
         <v>26</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>12314</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12300</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="1">
+        <f t="shared" si="4"/>
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4444,15 +5395,19 @@
         <v>26</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14765</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14800</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1">
+        <f t="shared" si="4"/>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4463,15 +5418,19 @@
         <v>26</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17522</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17500</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1">
+        <f t="shared" si="4"/>
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4482,15 +5441,19 @@
         <v>26</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20603</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20600</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="1">
+        <f t="shared" si="4"/>
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4501,15 +5464,19 @@
         <v>26</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24026</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="1">
+        <f t="shared" si="4"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4520,15 +5487,19 @@
         <v>26</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>27809</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27800</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="1">
+        <f t="shared" si="4"/>
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -4539,15 +5510,19 @@
         <v>26</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>31970</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32000</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="1">
+        <f>E22/3</f>
+        <v>10666.666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -4558,15 +5533,19 @@
         <v>26</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>36527</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36500</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="1">
+        <f t="shared" ref="F23:F31" si="5">E23/3</f>
+        <v>12166.666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -4577,15 +5556,19 @@
         <v>26</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>41498</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41500</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="1">
+        <f t="shared" si="5"/>
+        <v>13833.333333333334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -4596,15 +5579,19 @@
         <v>26</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>46901</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46900</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="1">
+        <f t="shared" si="5"/>
+        <v>15633.333333333334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -4615,15 +5602,19 @@
         <v>26</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>52754</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52800</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="1">
+        <f t="shared" si="5"/>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -4634,15 +5625,19 @@
         <v>26</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>59075</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59100</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="1">
+        <f t="shared" si="5"/>
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -4653,15 +5648,19 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>65882</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65900</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="1">
+        <f t="shared" si="5"/>
+        <v>21966.666666666668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -4672,15 +5671,19 @@
         <v>26</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>73193</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73200</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="1">
+        <f t="shared" si="5"/>
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -4691,15 +5694,19 @@
         <v>26</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>81026</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81000</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="1">
+        <f t="shared" si="5"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -4710,15 +5717,19 @@
         <v>26</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>89399</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89400</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="F31" s="1">
+        <f t="shared" si="5"/>
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -4729,15 +5740,19 @@
         <v>26</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>98330</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>98300</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="F32" s="1">
+        <f>E32/4</f>
+        <v>24575</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -4748,15 +5763,19 @@
         <v>26</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>107837</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>107800</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="F33" s="1">
+        <f t="shared" ref="F33:F41" si="6">E33/4</f>
+        <v>26950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -4767,15 +5786,19 @@
         <v>26</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>117938</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>117900</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="F34" s="1">
+        <f t="shared" si="6"/>
+        <v>29475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -4786,15 +5809,19 @@
         <v>26</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>128651</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>128700</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35" s="1">
+        <f t="shared" si="6"/>
+        <v>32175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -4805,15 +5832,19 @@
         <v>26</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>139994</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>140000</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="F36" s="1">
+        <f t="shared" si="6"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -4824,15 +5855,19 @@
         <v>26</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>151985</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>152000</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37" s="1">
+        <f t="shared" si="6"/>
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -4843,15 +5878,19 @@
         <v>26</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>164642</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>164600</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="F38" s="1">
+        <f t="shared" si="6"/>
+        <v>41150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -4862,15 +5901,19 @@
         <v>26</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>177983</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>178000</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="F39" s="1">
+        <f t="shared" si="6"/>
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -4881,15 +5924,19 @@
         <v>26</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>192026</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>192000</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="F40" s="1">
+        <f t="shared" si="6"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -4900,15 +5947,19 @@
         <v>26</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>206789</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>206800</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="F41" s="1">
+        <f t="shared" si="6"/>
+        <v>51700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -4919,15 +5970,19 @@
         <v>26</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>222290</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>222300</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42" s="1">
+        <f>E42/5</f>
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -4938,15 +5993,19 @@
         <v>26</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>238547</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>238500</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="F43" s="1">
+        <f t="shared" ref="F43:F51" si="7">E43/5</f>
+        <v>47700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -4957,15 +6016,19 @@
         <v>26</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>255578</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>255600</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="F44" s="1">
+        <f t="shared" si="7"/>
+        <v>51120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -4976,15 +6039,19 @@
         <v>26</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>273401</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>273400</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45" s="1">
+        <f t="shared" si="7"/>
+        <v>54680</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -4995,15 +6062,19 @@
         <v>26</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>292034</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>292000</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="F46" s="1">
+        <f t="shared" si="7"/>
+        <v>58400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5014,15 +6085,19 @@
         <v>26</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>311495</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>311500</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="F47" s="1">
+        <f t="shared" si="7"/>
+        <v>62300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5033,15 +6108,19 @@
         <v>26</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>331802</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>331800</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="F48" s="1">
+        <f t="shared" si="7"/>
+        <v>66360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5052,15 +6131,19 @@
         <v>26</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>352973</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>353000</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49" s="1">
+        <f t="shared" si="7"/>
+        <v>70600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5071,15 +6154,19 @@
         <v>26</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>375026</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>375000</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="F50" s="1">
+        <f t="shared" si="7"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5090,12 +6177,676 @@
         <v>26</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>397979</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>398000</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="7"/>
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" s="1">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>26</v>
+      </c>
+      <c r="D52" s="1">
+        <f t="shared" ref="D52:D81" si="8">B52*(A52+1)^3+C52</f>
+        <v>421850</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" ref="E52:E81" si="9">ROUND(D52,-2)</f>
+        <v>421900</v>
+      </c>
+      <c r="F52" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3</v>
+      </c>
+      <c r="C53" s="1">
+        <v>26</v>
+      </c>
+      <c r="D53" s="1">
+        <f t="shared" si="8"/>
+        <v>446657</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="9"/>
+        <v>446700</v>
+      </c>
+      <c r="F53" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>3</v>
+      </c>
+      <c r="C54" s="1">
+        <v>26</v>
+      </c>
+      <c r="D54" s="1">
+        <f t="shared" si="8"/>
+        <v>472418</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="9"/>
+        <v>472400</v>
+      </c>
+      <c r="F54" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>3</v>
+      </c>
+      <c r="C55" s="1">
+        <v>26</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="8"/>
+        <v>499151</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="9"/>
+        <v>499200</v>
+      </c>
+      <c r="F55" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1">
+        <v>26</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="8"/>
+        <v>526874</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="9"/>
+        <v>526900</v>
+      </c>
+      <c r="F56" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1">
+        <v>26</v>
+      </c>
+      <c r="D57" s="1">
+        <f t="shared" si="8"/>
+        <v>555605</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="9"/>
+        <v>555600</v>
+      </c>
+      <c r="F57" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1">
+        <v>26</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="8"/>
+        <v>585362</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="9"/>
+        <v>585400</v>
+      </c>
+      <c r="F58" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1">
+        <v>26</v>
+      </c>
+      <c r="D59" s="1">
+        <f t="shared" si="8"/>
+        <v>616163</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="9"/>
+        <v>616200</v>
+      </c>
+      <c r="F59" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1">
+        <v>26</v>
+      </c>
+      <c r="D60" s="1">
+        <f t="shared" si="8"/>
+        <v>648026</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="9"/>
+        <v>648000</v>
+      </c>
+      <c r="F60" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1">
+        <v>26</v>
+      </c>
+      <c r="D61" s="1">
+        <f t="shared" si="8"/>
+        <v>680969</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="9"/>
+        <v>681000</v>
+      </c>
+      <c r="F61" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1">
+        <v>26</v>
+      </c>
+      <c r="D62" s="1">
+        <f t="shared" si="8"/>
+        <v>715010</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="9"/>
+        <v>715000</v>
+      </c>
+      <c r="F62" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1">
+        <v>26</v>
+      </c>
+      <c r="D63" s="1">
+        <f t="shared" si="8"/>
+        <v>750167</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" si="9"/>
+        <v>750200</v>
+      </c>
+      <c r="F63" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1">
+        <v>26</v>
+      </c>
+      <c r="D64" s="1">
+        <f t="shared" si="8"/>
+        <v>786458</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="9"/>
+        <v>786500</v>
+      </c>
+      <c r="F64" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1">
+        <v>26</v>
+      </c>
+      <c r="D65" s="1">
+        <f t="shared" si="8"/>
+        <v>823901</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="9"/>
+        <v>823900</v>
+      </c>
+      <c r="F65" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1">
+        <v>26</v>
+      </c>
+      <c r="D66" s="1">
+        <f t="shared" si="8"/>
+        <v>862514</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="9"/>
+        <v>862500</v>
+      </c>
+      <c r="F66" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>26</v>
+      </c>
+      <c r="D67" s="1">
+        <f t="shared" si="8"/>
+        <v>902315</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="9"/>
+        <v>902300</v>
+      </c>
+      <c r="F67" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1">
+        <v>26</v>
+      </c>
+      <c r="D68" s="1">
+        <f t="shared" si="8"/>
+        <v>943322</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="9"/>
+        <v>943300</v>
+      </c>
+      <c r="F68" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1">
+        <v>26</v>
+      </c>
+      <c r="D69" s="1">
+        <f t="shared" si="8"/>
+        <v>985553</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="9"/>
+        <v>985600</v>
+      </c>
+      <c r="F69" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1">
+        <v>26</v>
+      </c>
+      <c r="D70" s="1">
+        <f t="shared" si="8"/>
+        <v>1029026</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="9"/>
+        <v>1029000</v>
+      </c>
+      <c r="F70" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1">
+        <v>26</v>
+      </c>
+      <c r="D71" s="1">
+        <f t="shared" si="8"/>
+        <v>1073759</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="9"/>
+        <v>1073800</v>
+      </c>
+      <c r="F71" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1">
+        <v>26</v>
+      </c>
+      <c r="D72" s="1">
+        <f t="shared" si="8"/>
+        <v>1119770</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="9"/>
+        <v>1119800</v>
+      </c>
+      <c r="F72" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1">
+        <v>26</v>
+      </c>
+      <c r="D73" s="1">
+        <f t="shared" si="8"/>
+        <v>1167077</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" si="9"/>
+        <v>1167100</v>
+      </c>
+      <c r="F73" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>3</v>
+      </c>
+      <c r="C74" s="1">
+        <v>26</v>
+      </c>
+      <c r="D74" s="1">
+        <f t="shared" si="8"/>
+        <v>1215698</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="9"/>
+        <v>1215700</v>
+      </c>
+      <c r="F74" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1">
+        <v>26</v>
+      </c>
+      <c r="D75" s="1">
+        <f t="shared" si="8"/>
+        <v>1265651</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="9"/>
+        <v>1265700</v>
+      </c>
+      <c r="F75" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1">
+        <v>26</v>
+      </c>
+      <c r="D76" s="1">
+        <f t="shared" si="8"/>
+        <v>1316954</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="9"/>
+        <v>1317000</v>
+      </c>
+      <c r="F76" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1">
+        <v>26</v>
+      </c>
+      <c r="D77" s="1">
+        <f t="shared" si="8"/>
+        <v>1369625</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="9"/>
+        <v>1369600</v>
+      </c>
+      <c r="F77" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1">
+        <v>26</v>
+      </c>
+      <c r="D78" s="1">
+        <f t="shared" si="8"/>
+        <v>1423682</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="9"/>
+        <v>1423700</v>
+      </c>
+      <c r="F78" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1">
+        <v>26</v>
+      </c>
+      <c r="D79" s="1">
+        <f t="shared" si="8"/>
+        <v>1479143</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="9"/>
+        <v>1479100</v>
+      </c>
+      <c r="F79" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1">
+        <v>26</v>
+      </c>
+      <c r="D80" s="1">
+        <f t="shared" si="8"/>
+        <v>1536026</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" si="9"/>
+        <v>1536000</v>
+      </c>
+      <c r="F80" s="1">
+        <v>79600</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>3</v>
+      </c>
+      <c r="C81" s="1">
+        <v>26</v>
+      </c>
+      <c r="D81" s="1">
+        <f t="shared" si="8"/>
+        <v>1594349</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" si="9"/>
+        <v>1594300</v>
+      </c>
+      <c r="F81" s="1">
+        <v>79600</v>
       </c>
     </row>
   </sheetData>
@@ -5110,19 +6861,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -5131,13 +6882,16 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>12</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -5155,8 +6909,12 @@
         <f>ROUND(D2,0)</f>
         <v>50</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="F2" s="1">
+        <f>E2/1</f>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -5174,8 +6932,12 @@
         <f>ROUND(D3,-2)</f>
         <v>100</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3" s="1">
+        <f t="shared" ref="F3:F11" si="0">E3/1</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -5186,15 +6948,19 @@
         <v>26</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D31" si="0">B4*(A4+1)^3+C4</f>
+        <f t="shared" ref="D4:D51" si="1">B4*(A4+1)^3+C4</f>
         <v>218</v>
       </c>
       <c r="E4" s="1">
         <f>ROUND(D4,-2)</f>
         <v>200</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -5205,15 +6971,19 @@
         <v>26</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>401</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E31" si="1">ROUND(D5,-2)</f>
+        <f t="shared" ref="E5:E51" si="2">ROUND(D5,-2)</f>
         <v>400</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -5224,15 +6994,19 @@
         <v>26</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>674</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>700</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5243,15 +7017,19 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1055</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1100</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5262,15 +7040,19 @@
         <v>26</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1562</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1600</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5281,15 +7063,19 @@
         <v>26</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2213</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2200</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5300,15 +7086,19 @@
         <v>26</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3026</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3000</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5319,15 +7109,19 @@
         <v>26</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4019</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5338,15 +7132,19 @@
         <v>26</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5210</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5200</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12" s="1">
+        <f t="shared" ref="F12:F21" si="3">E12/2</f>
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5357,15 +7155,19 @@
         <v>26</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>6617</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>6600</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13" s="1">
+        <f t="shared" si="3"/>
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5376,15 +7178,19 @@
         <v>26</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8258</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8300</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14" s="1">
+        <f t="shared" si="3"/>
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5395,15 +7201,19 @@
         <v>26</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>10151</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10200</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15" s="1">
+        <f t="shared" si="3"/>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5414,15 +7224,19 @@
         <v>26</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>12314</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12300</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16" s="1">
+        <f t="shared" si="3"/>
+        <v>6150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5433,15 +7247,19 @@
         <v>26</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14765</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>14800</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17" s="1">
+        <f t="shared" si="3"/>
+        <v>7400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5452,15 +7270,19 @@
         <v>26</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>17522</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17500</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18" s="1">
+        <f t="shared" si="3"/>
+        <v>8750</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5471,15 +7293,19 @@
         <v>26</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>20603</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>20600</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19" s="1">
+        <f t="shared" si="3"/>
+        <v>10300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5490,15 +7316,19 @@
         <v>26</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24026</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24000</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20" s="1">
+        <f t="shared" si="3"/>
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5509,15 +7339,19 @@
         <v>26</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>27809</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>27800</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21" s="1">
+        <f t="shared" si="3"/>
+        <v>13900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5528,15 +7362,19 @@
         <v>26</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>31970</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32000</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22" s="1">
+        <f>E22/3</f>
+        <v>10666.666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5547,15 +7385,19 @@
         <v>26</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>36527</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36500</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23" s="1">
+        <f t="shared" ref="F23:F31" si="4">E23/3</f>
+        <v>12166.666666666666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5566,15 +7408,19 @@
         <v>26</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>41498</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>41500</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24" s="1">
+        <f t="shared" si="4"/>
+        <v>13833.333333333334</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5585,15 +7431,19 @@
         <v>26</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>46901</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>46900</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25" s="1">
+        <f t="shared" si="4"/>
+        <v>15633.333333333334</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5604,15 +7454,19 @@
         <v>26</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>52754</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>52800</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="F26" s="1">
+        <f t="shared" si="4"/>
+        <v>17600</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5623,15 +7477,19 @@
         <v>26</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>59075</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>59100</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27" s="1">
+        <f t="shared" si="4"/>
+        <v>19700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5642,15 +7500,19 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65882</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65900</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="F28" s="1">
+        <f t="shared" si="4"/>
+        <v>21966.666666666668</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5661,15 +7523,19 @@
         <v>26</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>73193</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>73200</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="F29" s="1">
+        <f t="shared" si="4"/>
+        <v>24400</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5680,15 +7546,19 @@
         <v>26</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>81026</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>81000</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="F30" s="1">
+        <f t="shared" si="4"/>
+        <v>27000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5699,760 +7569,476 @@
         <v>26</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>89399</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89400</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1">
-        <f>B2*(A2+1)^3+C2</f>
-        <v>106</v>
-      </c>
-      <c r="E2" s="1">
-        <f>ROUND(D2,0)</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1">
-        <v>26</v>
-      </c>
-      <c r="D3" s="1">
-        <f>B3*(A3+1)^3+C3</f>
-        <v>296</v>
-      </c>
-      <c r="E3" s="1">
-        <f>ROUND(D3,-2)</f>
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D5" si="0">B4*(A4+1)^3+C4</f>
-        <v>666</v>
-      </c>
-      <c r="E4" s="1">
-        <f>ROUND(D4,-2)</f>
-        <v>700</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>26</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>1276</v>
-      </c>
-      <c r="E5" s="1">
-        <f t="shared" ref="E5:E31" si="1">ROUND(D5,-2)</f>
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>26</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" ref="D6:D30" si="2">B6*(A6+1)^3+C6</f>
-        <v>2186</v>
-      </c>
-      <c r="E6" s="1">
-        <f t="shared" si="1"/>
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="2"/>
-        <v>3456</v>
-      </c>
-      <c r="E7" s="1">
-        <f t="shared" si="1"/>
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>26</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="2"/>
-        <v>5146</v>
-      </c>
-      <c r="E8" s="1">
-        <f t="shared" si="1"/>
-        <v>5100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>26</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="2"/>
-        <v>7316</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="1"/>
-        <v>7300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>26</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="2"/>
-        <v>10026</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="1"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>26</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="2"/>
-        <v>13336</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="1"/>
-        <v>13300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>26</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="2"/>
-        <v>17306</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="1"/>
-        <v>17300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>26</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="2"/>
-        <v>21996</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" si="1"/>
-        <v>22000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>26</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="2"/>
-        <v>27466</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="1"/>
-        <v>27500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1">
-        <v>26</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="2"/>
-        <v>33776</v>
-      </c>
-      <c r="E15" s="1">
-        <f t="shared" si="1"/>
-        <v>33800</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1">
-        <v>26</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="2"/>
-        <v>40986</v>
-      </c>
-      <c r="E16" s="1">
-        <f t="shared" si="1"/>
-        <v>41000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1">
-        <v>26</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="2"/>
-        <v>49156</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="1"/>
-        <v>49200</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1">
-        <v>26</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="2"/>
-        <v>58346</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="1"/>
-        <v>58300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <v>10</v>
-      </c>
-      <c r="C19" s="1">
-        <v>26</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="2"/>
-        <v>68616</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="1"/>
-        <v>68600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <v>10</v>
-      </c>
-      <c r="C20" s="1">
-        <v>26</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="2"/>
-        <v>80026</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="1"/>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <v>10</v>
-      </c>
-      <c r="C21" s="1">
-        <v>26</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="2"/>
-        <v>92636</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="1"/>
-        <v>92600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <v>10</v>
-      </c>
-      <c r="C22" s="1">
-        <v>26</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="2"/>
-        <v>106506</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" si="1"/>
-        <v>106500</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <v>10</v>
-      </c>
-      <c r="C23" s="1">
-        <v>26</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="2"/>
-        <v>121696</v>
-      </c>
-      <c r="E23" s="1">
-        <f t="shared" si="1"/>
-        <v>121700</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <v>10</v>
-      </c>
-      <c r="C24" s="1">
-        <v>26</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="2"/>
-        <v>138266</v>
-      </c>
-      <c r="E24" s="1">
-        <f t="shared" si="1"/>
-        <v>138300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <v>10</v>
-      </c>
-      <c r="C25" s="1">
-        <v>26</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="2"/>
-        <v>156276</v>
-      </c>
-      <c r="E25" s="1">
-        <f t="shared" si="1"/>
-        <v>156300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <v>10</v>
-      </c>
-      <c r="C26" s="1">
-        <v>26</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="2"/>
-        <v>175786</v>
-      </c>
-      <c r="E26" s="1">
-        <f t="shared" si="1"/>
-        <v>175800</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <v>10</v>
-      </c>
-      <c r="C27" s="1">
-        <v>26</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="2"/>
-        <v>196856</v>
-      </c>
-      <c r="E27" s="1">
-        <f t="shared" si="1"/>
-        <v>196900</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <v>10</v>
-      </c>
-      <c r="C28" s="1">
-        <v>26</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="2"/>
-        <v>219546</v>
-      </c>
-      <c r="E28" s="1">
-        <f t="shared" si="1"/>
-        <v>219500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <v>10</v>
-      </c>
-      <c r="C29" s="1">
-        <v>26</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="2"/>
-        <v>243916</v>
-      </c>
-      <c r="E29" s="1">
-        <f t="shared" si="1"/>
-        <v>243900</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <v>10</v>
-      </c>
-      <c r="C30" s="1">
-        <v>26</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="2"/>
-        <v>270026</v>
-      </c>
-      <c r="E30" s="1">
-        <f t="shared" si="1"/>
-        <v>270000</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <v>10</v>
-      </c>
-      <c r="C31" s="1">
-        <v>26</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" ref="D31" si="3">B31*(A31+1)^3+C31</f>
-        <v>297936</v>
-      </c>
-      <c r="E31" s="1">
-        <f t="shared" si="1"/>
-        <v>297900</v>
+      <c r="F31" s="1">
+        <f t="shared" si="4"/>
+        <v>29800</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1">
+        <v>26</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="1"/>
+        <v>98330</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="2"/>
+        <v>98300</v>
+      </c>
+      <c r="F32" s="1">
+        <f>E32/4</f>
+        <v>24575</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>26</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="1"/>
+        <v>107837</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="2"/>
+        <v>107800</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" ref="F33:F41" si="5">E33/4</f>
+        <v>26950</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>26</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="1"/>
+        <v>117938</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="2"/>
+        <v>117900</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="5"/>
+        <v>29475</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1">
+        <v>26</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="1"/>
+        <v>128651</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="2"/>
+        <v>128700</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="5"/>
+        <v>32175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1">
+        <v>26</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="1"/>
+        <v>139994</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="2"/>
+        <v>140000</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" si="5"/>
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="1"/>
+        <v>151985</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="2"/>
+        <v>152000</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" si="5"/>
+        <v>38000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
+        <v>26</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="1"/>
+        <v>164642</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="2"/>
+        <v>164600</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="5"/>
+        <v>41150</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>26</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="1"/>
+        <v>177983</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="2"/>
+        <v>178000</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="5"/>
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1">
+        <v>26</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="1"/>
+        <v>192026</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="2"/>
+        <v>192000</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="5"/>
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1">
+        <v>26</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="1"/>
+        <v>206789</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="2"/>
+        <v>206800</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="5"/>
+        <v>51700</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1">
+        <v>26</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="1"/>
+        <v>222290</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="2"/>
+        <v>222300</v>
+      </c>
+      <c r="F42" s="1">
+        <f>E42/5</f>
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1">
+        <v>26</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="1"/>
+        <v>238547</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" si="2"/>
+        <v>238500</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" ref="F43:F51" si="6">E43/5</f>
+        <v>47700</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" s="1">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1">
+        <v>26</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="1"/>
+        <v>255578</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" si="2"/>
+        <v>255600</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="6"/>
+        <v>51120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" s="1">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1">
+        <v>26</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="1"/>
+        <v>273401</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" si="2"/>
+        <v>273400</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="6"/>
+        <v>54680</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>26</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="1"/>
+        <v>292034</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="2"/>
+        <v>292000</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="6"/>
+        <v>58400</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1">
+        <v>26</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="1"/>
+        <v>311495</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="2"/>
+        <v>311500</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="6"/>
+        <v>62300</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1">
+        <v>26</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="1"/>
+        <v>331802</v>
+      </c>
+      <c r="E48" s="1">
+        <f t="shared" si="2"/>
+        <v>331800</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" si="6"/>
+        <v>66360</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" s="1">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1">
+        <v>26</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="1"/>
+        <v>352973</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="2"/>
+        <v>353000</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="6"/>
+        <v>70600</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" s="1">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1">
+        <v>26</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="1"/>
+        <v>375026</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="2"/>
+        <v>375000</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="6"/>
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1">
+        <v>26</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="1"/>
+        <v>397979</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="2"/>
+        <v>398000</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="6"/>
+        <v>79600</v>
       </c>
     </row>
   </sheetData>
@@ -6470,15 +8056,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -6487,10 +8073,10 @@
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -6542,7 +8128,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D51" si="0">B4*(A4+1)^3+C4</f>
+        <f t="shared" ref="D4:D31" si="0">B4*(A4+1)^3+C4</f>
         <v>218</v>
       </c>
       <c r="E4" s="1">
@@ -6565,7 +8151,7 @@
         <v>401</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E51" si="1">ROUND(D5,-2)</f>
+        <f t="shared" ref="E5:E31" si="1">ROUND(D5,-2)</f>
         <v>400</v>
       </c>
     </row>
@@ -7064,384 +8650,144 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1">
-        <v>26</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>98330</v>
-      </c>
-      <c r="E32" s="1">
-        <f t="shared" si="1"/>
-        <v>98300</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1">
-        <v>26</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>107837</v>
-      </c>
-      <c r="E33" s="1">
-        <f t="shared" si="1"/>
-        <v>107800</v>
-      </c>
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1">
-        <v>26</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>117938</v>
-      </c>
-      <c r="E34" s="1">
-        <f t="shared" si="1"/>
-        <v>117900</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1">
-        <v>26</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>128651</v>
-      </c>
-      <c r="E35" s="1">
-        <f t="shared" si="1"/>
-        <v>128700</v>
-      </c>
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <v>3</v>
-      </c>
-      <c r="C36" s="1">
-        <v>26</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>139994</v>
-      </c>
-      <c r="E36" s="1">
-        <f t="shared" si="1"/>
-        <v>140000</v>
-      </c>
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1">
-        <v>26</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>151985</v>
-      </c>
-      <c r="E37" s="1">
-        <f t="shared" si="1"/>
-        <v>152000</v>
-      </c>
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <v>3</v>
-      </c>
-      <c r="C38" s="1">
-        <v>26</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>164642</v>
-      </c>
-      <c r="E38" s="1">
-        <f t="shared" si="1"/>
-        <v>164600</v>
-      </c>
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <v>3</v>
-      </c>
-      <c r="C39" s="1">
-        <v>26</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="0"/>
-        <v>177983</v>
-      </c>
-      <c r="E39" s="1">
-        <f t="shared" si="1"/>
-        <v>178000</v>
-      </c>
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <v>3</v>
-      </c>
-      <c r="C40" s="1">
-        <v>26</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="0"/>
-        <v>192026</v>
-      </c>
-      <c r="E40" s="1">
-        <f t="shared" si="1"/>
-        <v>192000</v>
-      </c>
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <v>3</v>
-      </c>
-      <c r="C41" s="1">
-        <v>26</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="0"/>
-        <v>206789</v>
-      </c>
-      <c r="E41" s="1">
-        <f t="shared" si="1"/>
-        <v>206800</v>
-      </c>
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <v>3</v>
-      </c>
-      <c r="C42" s="1">
-        <v>26</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="0"/>
-        <v>222290</v>
-      </c>
-      <c r="E42" s="1">
-        <f t="shared" si="1"/>
-        <v>222300</v>
-      </c>
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1">
-        <v>3</v>
-      </c>
-      <c r="C43" s="1">
-        <v>26</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="0"/>
-        <v>238547</v>
-      </c>
-      <c r="E43" s="1">
-        <f t="shared" si="1"/>
-        <v>238500</v>
-      </c>
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <v>3</v>
-      </c>
-      <c r="C44" s="1">
-        <v>26</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="0"/>
-        <v>255578</v>
-      </c>
-      <c r="E44" s="1">
-        <f t="shared" si="1"/>
-        <v>255600</v>
-      </c>
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1">
-        <v>3</v>
-      </c>
-      <c r="C45" s="1">
-        <v>26</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="0"/>
-        <v>273401</v>
-      </c>
-      <c r="E45" s="1">
-        <f t="shared" si="1"/>
-        <v>273400</v>
-      </c>
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <v>3</v>
-      </c>
-      <c r="C46" s="1">
-        <v>26</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="0"/>
-        <v>292034</v>
-      </c>
-      <c r="E46" s="1">
-        <f t="shared" si="1"/>
-        <v>292000</v>
-      </c>
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <v>3</v>
-      </c>
-      <c r="C47" s="1">
-        <v>26</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="0"/>
-        <v>311495</v>
-      </c>
-      <c r="E47" s="1">
-        <f t="shared" si="1"/>
-        <v>311500</v>
-      </c>
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <v>3</v>
-      </c>
-      <c r="C48" s="1">
-        <v>26</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="0"/>
-        <v>331802</v>
-      </c>
-      <c r="E48" s="1">
-        <f t="shared" si="1"/>
-        <v>331800</v>
-      </c>
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
     </row>
     <row r="49" spans="1:5">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1">
-        <v>3</v>
-      </c>
-      <c r="C49" s="1">
-        <v>26</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="0"/>
-        <v>352973</v>
-      </c>
-      <c r="E49" s="1">
-        <f t="shared" si="1"/>
-        <v>353000</v>
-      </c>
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1">
-        <v>3</v>
-      </c>
-      <c r="C50" s="1">
-        <v>26</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="0"/>
-        <v>375026</v>
-      </c>
-      <c r="E50" s="1">
-        <f t="shared" si="1"/>
-        <v>375000</v>
-      </c>
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1">
-        <v>3</v>
-      </c>
-      <c r="C51" s="1">
-        <v>26</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="0"/>
-        <v>397979</v>
-      </c>
-      <c r="E51" s="1">
-        <f t="shared" si="1"/>
-        <v>398000</v>
-      </c>
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -7456,10 +8802,618 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1">
+        <v>26</v>
+      </c>
+      <c r="D2" s="1">
+        <f>B2*(A2+1)^3+C2</f>
+        <v>106</v>
+      </c>
+      <c r="E2" s="1">
+        <f>ROUND(D2,0)</f>
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1">
+        <f>B3*(A3+1)^3+C3</f>
+        <v>296</v>
+      </c>
+      <c r="E3" s="1">
+        <f>ROUND(D3,-2)</f>
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D5" si="0">B4*(A4+1)^3+C4</f>
+        <v>666</v>
+      </c>
+      <c r="E4" s="1">
+        <f>ROUND(D4,-2)</f>
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>1276</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E31" si="1">ROUND(D5,-2)</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>26</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" ref="D6:D30" si="2">B6*(A6+1)^3+C6</f>
+        <v>2186</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>26</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>3456</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="1"/>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>26</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="2"/>
+        <v>5146</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>26</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="2"/>
+        <v>7316</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="1"/>
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>26</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="2"/>
+        <v>10026</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>26</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="2"/>
+        <v>13336</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="1"/>
+        <v>13300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>26</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="2"/>
+        <v>17306</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>26</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="2"/>
+        <v>21996</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
+        <v>22000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>26</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="2"/>
+        <v>27466</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>27500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="2"/>
+        <v>33776</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>33800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>26</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>40986</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="2"/>
+        <v>49156</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="1"/>
+        <v>49200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>26</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>58346</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="1"/>
+        <v>58300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1">
+        <v>10</v>
+      </c>
+      <c r="C19" s="1">
+        <v>26</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>68616</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="1"/>
+        <v>68600</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>10</v>
+      </c>
+      <c r="C20" s="1">
+        <v>26</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>80026</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="1"/>
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10</v>
+      </c>
+      <c r="C21" s="1">
+        <v>26</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>92636</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="1"/>
+        <v>92600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1">
+        <v>10</v>
+      </c>
+      <c r="C22" s="1">
+        <v>26</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>106506</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="1"/>
+        <v>106500</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>26</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>121696</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="1"/>
+        <v>121700</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1">
+        <v>10</v>
+      </c>
+      <c r="C24" s="1">
+        <v>26</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>138266</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="1"/>
+        <v>138300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1">
+        <v>10</v>
+      </c>
+      <c r="C25" s="1">
+        <v>26</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>156276</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="1"/>
+        <v>156300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>10</v>
+      </c>
+      <c r="C26" s="1">
+        <v>26</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>175786</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="1"/>
+        <v>175800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>10</v>
+      </c>
+      <c r="C27" s="1">
+        <v>26</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="2"/>
+        <v>196856</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="1"/>
+        <v>196900</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>10</v>
+      </c>
+      <c r="C28" s="1">
+        <v>26</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="2"/>
+        <v>219546</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="1"/>
+        <v>219500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>10</v>
+      </c>
+      <c r="C29" s="1">
+        <v>26</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="2"/>
+        <v>243916</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>243900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>10</v>
+      </c>
+      <c r="C30" s="1">
+        <v>26</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="2"/>
+        <v>270026</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="1"/>
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>10</v>
+      </c>
+      <c r="C31" s="1">
+        <v>26</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ref="D31" si="3">B31*(A31+1)^3+C31</f>
+        <v>297936</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="1"/>
+        <v>297900</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D52"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -7948,11 +9902,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
@@ -7960,896 +9914,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D51"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <f>(A2*A2)*100+100</f>
-        <v>200</v>
-      </c>
-      <c r="C2" s="1">
-        <f>A2*A2*A2*100+100</f>
-        <v>200</v>
-      </c>
-      <c r="D2" s="1">
-        <f>A2*A2*100+A2*50+100</f>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <f t="shared" ref="B3:B51" si="0">(A3*A3)*100+100</f>
-        <v>500</v>
-      </c>
-      <c r="C3" s="1">
-        <f t="shared" ref="C3:C51" si="1">A3*A3*A3*100+100</f>
-        <v>900</v>
-      </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D51" si="2">A3*A3*100+A3*50+100</f>
-        <v>600</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="C4" s="1">
-        <f t="shared" si="1"/>
-        <v>2800</v>
-      </c>
-      <c r="D4" s="1">
-        <f>A4*A4*100+A4*50+100</f>
-        <v>1150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <f t="shared" si="0"/>
-        <v>1700</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" si="1"/>
-        <v>6500</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="2"/>
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <f t="shared" si="0"/>
-        <v>2600</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="1"/>
-        <v>12600</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="2"/>
-        <v>2850</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <f t="shared" si="0"/>
-        <v>3700</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="1"/>
-        <v>21700</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="2"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <f t="shared" si="0"/>
-        <v>5000</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="1"/>
-        <v>34400</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="2"/>
-        <v>5350</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <f t="shared" si="0"/>
-        <v>6500</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="1"/>
-        <v>51300</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="2"/>
-        <v>6900</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <f t="shared" si="0"/>
-        <v>8200</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="1"/>
-        <v>73000</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="2"/>
-        <v>8650</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <f t="shared" si="0"/>
-        <v>10100</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="1"/>
-        <v>100100</v>
-      </c>
-      <c r="D11" s="1">
-        <f t="shared" si="2"/>
-        <v>10600</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <f t="shared" si="0"/>
-        <v>12200</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="1"/>
-        <v>133200</v>
-      </c>
-      <c r="D12" s="1">
-        <f t="shared" si="2"/>
-        <v>12750</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <f t="shared" si="0"/>
-        <v>14500</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="1"/>
-        <v>172900</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" si="2"/>
-        <v>15100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1">
-        <v>13</v>
-      </c>
-      <c r="B14" s="1">
-        <f t="shared" si="0"/>
-        <v>17000</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="1"/>
-        <v>219800</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="2"/>
-        <v>17650</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="1">
-        <v>14</v>
-      </c>
-      <c r="B15" s="1">
-        <f t="shared" si="0"/>
-        <v>19700</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="1"/>
-        <v>274500</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="2"/>
-        <v>20400</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="0"/>
-        <v>22600</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="1"/>
-        <v>337600</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="2"/>
-        <v>23350</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="0"/>
-        <v>25700</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="1"/>
-        <v>409700</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="2"/>
-        <v>26500</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1">
-        <v>17</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="0"/>
-        <v>29000</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="1"/>
-        <v>491400</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="2"/>
-        <v>29850</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="0"/>
-        <v>32500</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="1"/>
-        <v>583300</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="2"/>
-        <v>33400</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1">
-        <v>19</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" si="0"/>
-        <v>36200</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="1"/>
-        <v>686000</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="2"/>
-        <v>37150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1">
-        <v>20</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" si="0"/>
-        <v>40100</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="1"/>
-        <v>800100</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="2"/>
-        <v>41100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" si="0"/>
-        <v>44200</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="1"/>
-        <v>926200</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" si="2"/>
-        <v>45250</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1">
-        <v>22</v>
-      </c>
-      <c r="B23" s="1">
-        <f t="shared" si="0"/>
-        <v>48500</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="1"/>
-        <v>1064900</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="2"/>
-        <v>49600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1">
-        <v>23</v>
-      </c>
-      <c r="B24" s="1">
-        <f t="shared" si="0"/>
-        <v>53000</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="1"/>
-        <v>1216800</v>
-      </c>
-      <c r="D24" s="1">
-        <f t="shared" si="2"/>
-        <v>54150</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1">
-        <f t="shared" si="0"/>
-        <v>57700</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="1"/>
-        <v>1382500</v>
-      </c>
-      <c r="D25" s="1">
-        <f t="shared" si="2"/>
-        <v>58900</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1">
-        <f t="shared" si="0"/>
-        <v>62600</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="1"/>
-        <v>1562600</v>
-      </c>
-      <c r="D26" s="1">
-        <f t="shared" si="2"/>
-        <v>63850</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1">
-        <v>26</v>
-      </c>
-      <c r="B27" s="1">
-        <f t="shared" si="0"/>
-        <v>67700</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="1"/>
-        <v>1757700</v>
-      </c>
-      <c r="D27" s="1">
-        <f t="shared" si="2"/>
-        <v>69000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1">
-        <v>27</v>
-      </c>
-      <c r="B28" s="1">
-        <f t="shared" si="0"/>
-        <v>73000</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="1"/>
-        <v>1968400</v>
-      </c>
-      <c r="D28" s="1">
-        <f t="shared" si="2"/>
-        <v>74350</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1">
-        <v>28</v>
-      </c>
-      <c r="B29" s="1">
-        <f t="shared" si="0"/>
-        <v>78500</v>
-      </c>
-      <c r="C29" s="1">
-        <f t="shared" si="1"/>
-        <v>2195300</v>
-      </c>
-      <c r="D29" s="1">
-        <f t="shared" si="2"/>
-        <v>79900</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1">
-        <v>29</v>
-      </c>
-      <c r="B30" s="1">
-        <f t="shared" si="0"/>
-        <v>84200</v>
-      </c>
-      <c r="C30" s="1">
-        <f t="shared" si="1"/>
-        <v>2439000</v>
-      </c>
-      <c r="D30" s="1">
-        <f t="shared" si="2"/>
-        <v>85650</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1">
-        <v>30</v>
-      </c>
-      <c r="B31" s="1">
-        <f t="shared" si="0"/>
-        <v>90100</v>
-      </c>
-      <c r="C31" s="1">
-        <f t="shared" si="1"/>
-        <v>2700100</v>
-      </c>
-      <c r="D31" s="1">
-        <f t="shared" si="2"/>
-        <v>91600</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="1">
-        <v>31</v>
-      </c>
-      <c r="B32" s="1">
-        <f t="shared" si="0"/>
-        <v>96200</v>
-      </c>
-      <c r="C32" s="1">
-        <f t="shared" si="1"/>
-        <v>2979200</v>
-      </c>
-      <c r="D32" s="1">
-        <f t="shared" si="2"/>
-        <v>97750</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="1">
-        <v>32</v>
-      </c>
-      <c r="B33" s="1">
-        <f t="shared" si="0"/>
-        <v>102500</v>
-      </c>
-      <c r="C33" s="1">
-        <f t="shared" si="1"/>
-        <v>3276900</v>
-      </c>
-      <c r="D33" s="1">
-        <f t="shared" si="2"/>
-        <v>104100</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="1">
-        <v>33</v>
-      </c>
-      <c r="B34" s="1">
-        <f t="shared" si="0"/>
-        <v>109000</v>
-      </c>
-      <c r="C34" s="1">
-        <f t="shared" si="1"/>
-        <v>3593800</v>
-      </c>
-      <c r="D34" s="1">
-        <f t="shared" si="2"/>
-        <v>110650</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="1">
-        <v>34</v>
-      </c>
-      <c r="B35" s="1">
-        <f t="shared" si="0"/>
-        <v>115700</v>
-      </c>
-      <c r="C35" s="1">
-        <f t="shared" si="1"/>
-        <v>3930500</v>
-      </c>
-      <c r="D35" s="1">
-        <f t="shared" si="2"/>
-        <v>117400</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="1">
-        <v>35</v>
-      </c>
-      <c r="B36" s="1">
-        <f t="shared" si="0"/>
-        <v>122600</v>
-      </c>
-      <c r="C36" s="1">
-        <f t="shared" si="1"/>
-        <v>4287600</v>
-      </c>
-      <c r="D36" s="1">
-        <f t="shared" si="2"/>
-        <v>124350</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="1">
-        <v>36</v>
-      </c>
-      <c r="B37" s="1">
-        <f t="shared" si="0"/>
-        <v>129700</v>
-      </c>
-      <c r="C37" s="1">
-        <f t="shared" si="1"/>
-        <v>4665700</v>
-      </c>
-      <c r="D37" s="1">
-        <f t="shared" si="2"/>
-        <v>131500</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="1">
-        <v>37</v>
-      </c>
-      <c r="B38" s="1">
-        <f t="shared" si="0"/>
-        <v>137000</v>
-      </c>
-      <c r="C38" s="1">
-        <f t="shared" si="1"/>
-        <v>5065400</v>
-      </c>
-      <c r="D38" s="1">
-        <f t="shared" si="2"/>
-        <v>138850</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="1">
-        <v>38</v>
-      </c>
-      <c r="B39" s="1">
-        <f t="shared" si="0"/>
-        <v>144500</v>
-      </c>
-      <c r="C39" s="1">
-        <f t="shared" si="1"/>
-        <v>5487300</v>
-      </c>
-      <c r="D39" s="1">
-        <f t="shared" si="2"/>
-        <v>146400</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="1">
-        <v>39</v>
-      </c>
-      <c r="B40" s="1">
-        <f t="shared" si="0"/>
-        <v>152200</v>
-      </c>
-      <c r="C40" s="1">
-        <f t="shared" si="1"/>
-        <v>5932000</v>
-      </c>
-      <c r="D40" s="1">
-        <f t="shared" si="2"/>
-        <v>154150</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="1">
-        <v>40</v>
-      </c>
-      <c r="B41" s="1">
-        <f t="shared" si="0"/>
-        <v>160100</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="1"/>
-        <v>6400100</v>
-      </c>
-      <c r="D41" s="1">
-        <f t="shared" si="2"/>
-        <v>162100</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="1">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1">
-        <f t="shared" si="0"/>
-        <v>168200</v>
-      </c>
-      <c r="C42" s="1">
-        <f t="shared" si="1"/>
-        <v>6892200</v>
-      </c>
-      <c r="D42" s="1">
-        <f t="shared" si="2"/>
-        <v>170250</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="1">
-        <v>42</v>
-      </c>
-      <c r="B43" s="1">
-        <f t="shared" si="0"/>
-        <v>176500</v>
-      </c>
-      <c r="C43" s="1">
-        <f t="shared" si="1"/>
-        <v>7408900</v>
-      </c>
-      <c r="D43" s="1">
-        <f t="shared" si="2"/>
-        <v>178600</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="1">
-        <v>43</v>
-      </c>
-      <c r="B44" s="1">
-        <f t="shared" si="0"/>
-        <v>185000</v>
-      </c>
-      <c r="C44" s="1">
-        <f t="shared" si="1"/>
-        <v>7950800</v>
-      </c>
-      <c r="D44" s="1">
-        <f t="shared" si="2"/>
-        <v>187150</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="1">
-        <v>44</v>
-      </c>
-      <c r="B45" s="1">
-        <f t="shared" si="0"/>
-        <v>193700</v>
-      </c>
-      <c r="C45" s="1">
-        <f t="shared" si="1"/>
-        <v>8518500</v>
-      </c>
-      <c r="D45" s="1">
-        <f t="shared" si="2"/>
-        <v>195900</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="1">
-        <v>45</v>
-      </c>
-      <c r="B46" s="1">
-        <f t="shared" si="0"/>
-        <v>202600</v>
-      </c>
-      <c r="C46" s="1">
-        <f t="shared" si="1"/>
-        <v>9112600</v>
-      </c>
-      <c r="D46" s="1">
-        <f t="shared" si="2"/>
-        <v>204850</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="1">
-        <v>46</v>
-      </c>
-      <c r="B47" s="1">
-        <f t="shared" si="0"/>
-        <v>211700</v>
-      </c>
-      <c r="C47" s="1">
-        <f t="shared" si="1"/>
-        <v>9733700</v>
-      </c>
-      <c r="D47" s="1">
-        <f t="shared" si="2"/>
-        <v>214000</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="1">
-        <v>47</v>
-      </c>
-      <c r="B48" s="1">
-        <f t="shared" si="0"/>
-        <v>221000</v>
-      </c>
-      <c r="C48" s="1">
-        <f t="shared" si="1"/>
-        <v>10382400</v>
-      </c>
-      <c r="D48" s="1">
-        <f t="shared" si="2"/>
-        <v>223350</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="1">
-        <v>48</v>
-      </c>
-      <c r="B49" s="1">
-        <f t="shared" si="0"/>
-        <v>230500</v>
-      </c>
-      <c r="C49" s="1">
-        <f t="shared" si="1"/>
-        <v>11059300</v>
-      </c>
-      <c r="D49" s="1">
-        <f t="shared" si="2"/>
-        <v>232900</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="1">
-        <v>49</v>
-      </c>
-      <c r="B50" s="1">
-        <f t="shared" si="0"/>
-        <v>240200</v>
-      </c>
-      <c r="C50" s="1">
-        <f t="shared" si="1"/>
-        <v>11765000</v>
-      </c>
-      <c r="D50" s="1">
-        <f t="shared" si="2"/>
-        <v>242650</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="1">
-        <v>50</v>
-      </c>
-      <c r="B51" s="1">
-        <f t="shared" si="0"/>
-        <v>250100</v>
-      </c>
-      <c r="C51" s="1">
-        <f t="shared" si="1"/>
-        <v>12500100</v>
-      </c>
-      <c r="D51" s="1">
-        <f t="shared" si="2"/>
-        <v>252600</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0"/>
-  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/const/exps.xlsx
+++ b/const/exps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="140" yWindow="0" windowWidth="26400" windowHeight="15280" activeTab="7"/>
+    <workbookView xWindow="1380" yWindow="480" windowWidth="26400" windowHeight="15280" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="player_upgrade_exp" sheetId="1" r:id="rId1"/>
@@ -275,6 +275,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -631,11 +632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204771352"/>
-        <c:axId val="204847816"/>
+        <c:axId val="565042248"/>
+        <c:axId val="717519032"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204771352"/>
+        <c:axId val="565042248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -645,12 +646,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204847816"/>
+        <c:crossAx val="717519032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204847816"/>
+        <c:axId val="717519032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -661,13 +662,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="204771352"/>
+        <c:crossAx val="565042248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1378,11 +1380,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="542550536"/>
-        <c:axId val="542553528"/>
+        <c:axId val="732253640"/>
+        <c:axId val="551354408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="542550536"/>
+        <c:axId val="732253640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1392,12 +1394,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542553528"/>
+        <c:crossAx val="551354408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="542553528"/>
+        <c:axId val="551354408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,7 +1410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="542550536"/>
+        <c:crossAx val="732253640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1459,6 +1461,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1809,11 +1812,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="909941272"/>
-        <c:axId val="139602056"/>
+        <c:axId val="540471000"/>
+        <c:axId val="732413848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="909941272"/>
+        <c:axId val="540471000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1823,12 +1826,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="139602056"/>
+        <c:crossAx val="732413848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="139602056"/>
+        <c:axId val="732413848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1839,13 +1842,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="909941272"/>
+        <c:crossAx val="540471000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2231,11 +2235,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="910118904"/>
-        <c:axId val="909221976"/>
+        <c:axId val="717822280"/>
+        <c:axId val="717825240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="910118904"/>
+        <c:axId val="717822280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2245,12 +2249,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="909221976"/>
+        <c:crossAx val="717825240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="909221976"/>
+        <c:axId val="717825240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2261,7 +2265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="910118904"/>
+        <c:crossAx val="717822280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2711,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F52"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5009,8 +5013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F81"/>
   <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H65" sqref="H64:H65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6865,7 +6869,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
@@ -8056,8 +8060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8804,8 +8808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -9906,7 +9910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>

--- a/const/exps.xlsx
+++ b/const/exps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="480" windowWidth="26400" windowHeight="15280" activeTab="5"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="26400" windowHeight="15280"/>
   </bookViews>
   <sheets>
     <sheet name="player_upgrade_exp" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Sheet1" sheetId="11" r:id="rId9"/>
     <sheet name="Sheet2" sheetId="12" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -632,11 +632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="565042248"/>
-        <c:axId val="717519032"/>
+        <c:axId val="548255080"/>
+        <c:axId val="548267240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="565042248"/>
+        <c:axId val="548255080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,12 +646,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="717519032"/>
+        <c:crossAx val="548267240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="717519032"/>
+        <c:axId val="548267240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="565042248"/>
+        <c:crossAx val="548255080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1380,11 +1380,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="732253640"/>
-        <c:axId val="551354408"/>
+        <c:axId val="548271384"/>
+        <c:axId val="548274376"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="732253640"/>
+        <c:axId val="548271384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,12 +1394,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="551354408"/>
+        <c:crossAx val="548274376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="551354408"/>
+        <c:axId val="548274376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="732253640"/>
+        <c:crossAx val="548271384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1461,7 +1461,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1812,11 +1811,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="540471000"/>
-        <c:axId val="732413848"/>
+        <c:axId val="729982728"/>
+        <c:axId val="730140168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="540471000"/>
+        <c:axId val="729982728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1826,12 +1825,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="732413848"/>
+        <c:crossAx val="730140168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="732413848"/>
+        <c:axId val="730140168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1842,14 +1841,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="540471000"/>
+        <c:crossAx val="729982728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2235,11 +2233,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="717822280"/>
-        <c:axId val="717825240"/>
+        <c:axId val="729854520"/>
+        <c:axId val="729976344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="717822280"/>
+        <c:axId val="729854520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2249,12 +2247,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="717825240"/>
+        <c:crossAx val="729976344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="717825240"/>
+        <c:axId val="729976344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2265,7 +2263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="717822280"/>
+        <c:crossAx val="729854520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2713,15 +2711,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
+    <col min="1" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -3856,6 +3856,26 @@
       <c r="F52" s="1">
         <f t="shared" si="1"/>
         <v>3987100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53" s="1">
+        <v>30</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E53" s="1">
+        <v>99999999</v>
+      </c>
+      <c r="F53" s="1">
+        <v>99999999</v>
       </c>
     </row>
   </sheetData>
@@ -8808,7 +8828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>

--- a/const/exps.xlsx
+++ b/const/exps.xlsx
@@ -632,11 +632,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="548255080"/>
-        <c:axId val="548267240"/>
+        <c:axId val="543576456"/>
+        <c:axId val="715987096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="548255080"/>
+        <c:axId val="543576456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,12 +646,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="548267240"/>
+        <c:crossAx val="715987096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="548267240"/>
+        <c:axId val="715987096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,7 +662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="548255080"/>
+        <c:crossAx val="543576456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1380,11 +1380,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="548271384"/>
-        <c:axId val="548274376"/>
+        <c:axId val="716005784"/>
+        <c:axId val="715990440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="548271384"/>
+        <c:axId val="716005784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,12 +1394,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="548274376"/>
+        <c:crossAx val="715990440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="548274376"/>
+        <c:axId val="715990440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1410,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="548271384"/>
+        <c:crossAx val="716005784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1811,11 +1811,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="729982728"/>
-        <c:axId val="730140168"/>
+        <c:axId val="168245336"/>
+        <c:axId val="715753832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="729982728"/>
+        <c:axId val="168245336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,12 +1825,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="730140168"/>
+        <c:crossAx val="715753832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="730140168"/>
+        <c:axId val="715753832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,7 +1841,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="729982728"/>
+        <c:crossAx val="168245336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2233,11 +2233,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="729854520"/>
-        <c:axId val="729976344"/>
+        <c:axId val="715134728"/>
+        <c:axId val="715714552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="729854520"/>
+        <c:axId val="715134728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,12 +2247,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="729976344"/>
+        <c:crossAx val="715714552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="729976344"/>
+        <c:axId val="715714552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,7 +2263,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="729854520"/>
+        <c:crossAx val="715134728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2711,10 +2711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="H87" sqref="H87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3872,9 +3872,867 @@
         <v>-40</v>
       </c>
       <c r="E53" s="1">
+        <f t="shared" ref="E53:E62" si="2">B53*((A53)^3+C53*(A53))+D53</f>
+        <v>4226000</v>
+      </c>
+      <c r="F53" s="1">
+        <f t="shared" ref="F53:F62" si="3">ROUND(E53,-2)</f>
+        <v>4226000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54" s="1">
+        <v>30</v>
+      </c>
+      <c r="C54" s="1">
+        <v>5</v>
+      </c>
+      <c r="D54" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="2"/>
+        <v>4474220</v>
+      </c>
+      <c r="F54" s="1">
+        <f t="shared" si="3"/>
+        <v>4474200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55" s="1">
+        <v>30</v>
+      </c>
+      <c r="C55" s="1">
+        <v>5</v>
+      </c>
+      <c r="D55" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="2"/>
+        <v>4731980</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="3"/>
+        <v>4732000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56" s="1">
+        <v>30</v>
+      </c>
+      <c r="C56" s="1">
+        <v>5</v>
+      </c>
+      <c r="D56" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="2"/>
+        <v>4999460</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="3"/>
+        <v>4999500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57" s="1">
+        <v>30</v>
+      </c>
+      <c r="C57" s="1">
+        <v>5</v>
+      </c>
+      <c r="D57" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="2"/>
+        <v>5276840</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="3"/>
+        <v>5276800</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58" s="1">
+        <v>30</v>
+      </c>
+      <c r="C58" s="1">
+        <v>5</v>
+      </c>
+      <c r="D58" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="2"/>
+        <v>5564300</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="3"/>
+        <v>5564300</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1">
+        <v>30</v>
+      </c>
+      <c r="C59" s="1">
+        <v>5</v>
+      </c>
+      <c r="D59" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="2"/>
+        <v>5862020</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="3"/>
+        <v>5862000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1">
+        <v>30</v>
+      </c>
+      <c r="C60" s="1">
+        <v>5</v>
+      </c>
+      <c r="D60" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E60" s="1">
+        <f t="shared" si="2"/>
+        <v>6170180</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="3"/>
+        <v>6170200</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1">
+        <v>30</v>
+      </c>
+      <c r="C61" s="1">
+        <v>5</v>
+      </c>
+      <c r="D61" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E61" s="1">
+        <f t="shared" si="2"/>
+        <v>6488960</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="3"/>
+        <v>6489000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1">
+        <v>30</v>
+      </c>
+      <c r="C62" s="1">
+        <v>5</v>
+      </c>
+      <c r="D62" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E62" s="1">
+        <f t="shared" si="2"/>
+        <v>6818540</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="3"/>
+        <v>6818500</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1">
+        <v>30</v>
+      </c>
+      <c r="C63" s="1">
+        <v>5</v>
+      </c>
+      <c r="D63" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E63" s="1">
+        <f t="shared" ref="E63:E92" si="4">B63*((A63)^3+C63*(A63))+D63</f>
+        <v>7159100</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" ref="F63:F92" si="5">ROUND(E63,-2)</f>
+        <v>7159100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1">
+        <v>30</v>
+      </c>
+      <c r="C64" s="1">
+        <v>5</v>
+      </c>
+      <c r="D64" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E64" s="1">
+        <f t="shared" si="4"/>
+        <v>7510820</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="5"/>
+        <v>7510800</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1">
+        <v>30</v>
+      </c>
+      <c r="C65" s="1">
+        <v>5</v>
+      </c>
+      <c r="D65" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E65" s="1">
+        <f t="shared" si="4"/>
+        <v>7873880</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="5"/>
+        <v>7873900</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1">
+        <v>30</v>
+      </c>
+      <c r="C66" s="1">
+        <v>5</v>
+      </c>
+      <c r="D66" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E66" s="1">
+        <f t="shared" si="4"/>
+        <v>8248460</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="5"/>
+        <v>8248500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1">
+        <v>30</v>
+      </c>
+      <c r="C67" s="1">
+        <v>5</v>
+      </c>
+      <c r="D67" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E67" s="1">
+        <f t="shared" si="4"/>
+        <v>8634740</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="5"/>
+        <v>8634700</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1">
+        <v>30</v>
+      </c>
+      <c r="C68" s="1">
+        <v>5</v>
+      </c>
+      <c r="D68" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E68" s="1">
+        <f t="shared" si="4"/>
+        <v>9032900</v>
+      </c>
+      <c r="F68" s="1">
+        <f t="shared" si="5"/>
+        <v>9032900</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1">
+        <v>30</v>
+      </c>
+      <c r="C69" s="1">
+        <v>5</v>
+      </c>
+      <c r="D69" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E69" s="1">
+        <f t="shared" si="4"/>
+        <v>9443120</v>
+      </c>
+      <c r="F69" s="1">
+        <f t="shared" si="5"/>
+        <v>9443100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1">
+        <v>30</v>
+      </c>
+      <c r="C70" s="1">
+        <v>5</v>
+      </c>
+      <c r="D70" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E70" s="1">
+        <f t="shared" si="4"/>
+        <v>9865580</v>
+      </c>
+      <c r="F70" s="1">
+        <f t="shared" si="5"/>
+        <v>9865600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1">
+        <v>30</v>
+      </c>
+      <c r="C71" s="1">
+        <v>5</v>
+      </c>
+      <c r="D71" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E71" s="1">
+        <f t="shared" si="4"/>
+        <v>10300460</v>
+      </c>
+      <c r="F71" s="1">
+        <f t="shared" si="5"/>
+        <v>10300500</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1">
+        <v>30</v>
+      </c>
+      <c r="C72" s="1">
+        <v>5</v>
+      </c>
+      <c r="D72" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E72" s="1">
+        <f t="shared" si="4"/>
+        <v>10747940</v>
+      </c>
+      <c r="F72" s="1">
+        <f t="shared" si="5"/>
+        <v>10747900</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1">
+        <v>30</v>
+      </c>
+      <c r="C73" s="1">
+        <v>5</v>
+      </c>
+      <c r="D73" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E73" s="1">
+        <f t="shared" si="4"/>
+        <v>11208200</v>
+      </c>
+      <c r="F73" s="1">
+        <f t="shared" si="5"/>
+        <v>11208200</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1">
+        <v>30</v>
+      </c>
+      <c r="C74" s="1">
+        <v>5</v>
+      </c>
+      <c r="D74" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E74" s="1">
+        <f t="shared" si="4"/>
+        <v>11681420</v>
+      </c>
+      <c r="F74" s="1">
+        <f t="shared" si="5"/>
+        <v>11681400</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1">
+        <v>30</v>
+      </c>
+      <c r="C75" s="1">
+        <v>5</v>
+      </c>
+      <c r="D75" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E75" s="1">
+        <f t="shared" si="4"/>
+        <v>12167780</v>
+      </c>
+      <c r="F75" s="1">
+        <f t="shared" si="5"/>
+        <v>12167800</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1">
+        <v>30</v>
+      </c>
+      <c r="C76" s="1">
+        <v>5</v>
+      </c>
+      <c r="D76" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E76" s="1">
+        <f t="shared" si="4"/>
+        <v>12667460</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" si="5"/>
+        <v>12667500</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1">
+        <v>30</v>
+      </c>
+      <c r="C77" s="1">
+        <v>5</v>
+      </c>
+      <c r="D77" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" si="4"/>
+        <v>13180640</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" si="5"/>
+        <v>13180600</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1">
+        <v>30</v>
+      </c>
+      <c r="C78" s="1">
+        <v>5</v>
+      </c>
+      <c r="D78" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E78" s="1">
+        <f t="shared" si="4"/>
+        <v>13707500</v>
+      </c>
+      <c r="F78" s="1">
+        <f t="shared" si="5"/>
+        <v>13707500</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1">
+        <v>30</v>
+      </c>
+      <c r="C79" s="1">
+        <v>5</v>
+      </c>
+      <c r="D79" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E79" s="1">
+        <f t="shared" si="4"/>
+        <v>14248220</v>
+      </c>
+      <c r="F79" s="1">
+        <f t="shared" si="5"/>
+        <v>14248200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1">
+        <v>30</v>
+      </c>
+      <c r="C80" s="1">
+        <v>5</v>
+      </c>
+      <c r="D80" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E80" s="1">
+        <f t="shared" si="4"/>
+        <v>14802980</v>
+      </c>
+      <c r="F80" s="1">
+        <f t="shared" si="5"/>
+        <v>14803000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1">
+        <v>30</v>
+      </c>
+      <c r="C81" s="1">
+        <v>5</v>
+      </c>
+      <c r="D81" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E81" s="1">
+        <f t="shared" si="4"/>
+        <v>15371960</v>
+      </c>
+      <c r="F81" s="1">
+        <f t="shared" si="5"/>
+        <v>15372000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>30</v>
+      </c>
+      <c r="C82" s="1">
+        <v>5</v>
+      </c>
+      <c r="D82" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" si="4"/>
+        <v>15955340</v>
+      </c>
+      <c r="F82" s="1">
+        <f t="shared" si="5"/>
+        <v>15955300</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>30</v>
+      </c>
+      <c r="C83" s="1">
+        <v>5</v>
+      </c>
+      <c r="D83" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" si="4"/>
+        <v>16553300</v>
+      </c>
+      <c r="F83" s="1">
+        <f t="shared" si="5"/>
+        <v>16553300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>30</v>
+      </c>
+      <c r="C84" s="1">
+        <v>5</v>
+      </c>
+      <c r="D84" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="4"/>
+        <v>17166020</v>
+      </c>
+      <c r="F84" s="1">
+        <f t="shared" si="5"/>
+        <v>17166000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>30</v>
+      </c>
+      <c r="C85" s="1">
+        <v>5</v>
+      </c>
+      <c r="D85" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" si="4"/>
+        <v>17793680</v>
+      </c>
+      <c r="F85" s="1">
+        <f t="shared" si="5"/>
+        <v>17793700</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>30</v>
+      </c>
+      <c r="C86" s="1">
+        <v>5</v>
+      </c>
+      <c r="D86" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" si="4"/>
+        <v>18436460</v>
+      </c>
+      <c r="F86" s="1">
+        <f t="shared" si="5"/>
+        <v>18436500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>30</v>
+      </c>
+      <c r="C87" s="1">
+        <v>5</v>
+      </c>
+      <c r="D87" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" si="4"/>
+        <v>19094540</v>
+      </c>
+      <c r="F87" s="1">
+        <f t="shared" si="5"/>
+        <v>19094500</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>30</v>
+      </c>
+      <c r="C88" s="1">
+        <v>5</v>
+      </c>
+      <c r="D88" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" si="4"/>
+        <v>19768100</v>
+      </c>
+      <c r="F88" s="1">
+        <f t="shared" si="5"/>
+        <v>19768100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>30</v>
+      </c>
+      <c r="C89" s="1">
+        <v>5</v>
+      </c>
+      <c r="D89" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" si="4"/>
+        <v>20457320</v>
+      </c>
+      <c r="F89" s="1">
+        <f t="shared" si="5"/>
+        <v>20457300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>30</v>
+      </c>
+      <c r="C90" s="1">
+        <v>5</v>
+      </c>
+      <c r="D90" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E90" s="1">
+        <f t="shared" si="4"/>
+        <v>21162380</v>
+      </c>
+      <c r="F90" s="1">
+        <f t="shared" si="5"/>
+        <v>21162400</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>30</v>
+      </c>
+      <c r="C91" s="1">
+        <v>5</v>
+      </c>
+      <c r="D91" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" si="4"/>
+        <v>21883460</v>
+      </c>
+      <c r="F91" s="1">
+        <f t="shared" si="5"/>
+        <v>21883500</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>30</v>
+      </c>
+      <c r="C92" s="1">
+        <v>5</v>
+      </c>
+      <c r="D92" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E92" s="1">
         <v>99999999</v>
       </c>
-      <c r="F53" s="1">
+      <c r="F92" s="1">
         <v>99999999</v>
       </c>
     </row>

--- a/const/exps.xlsx
+++ b/const/exps.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="0" windowWidth="26400" windowHeight="15280"/>
+    <workbookView xWindow="1920" yWindow="0" windowWidth="26400" windowHeight="15280" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="player_upgrade_exp" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>k</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,12 +157,16 @@
     <t>xp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>xp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,6 +199,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -213,8 +235,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -232,7 +272,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -275,7 +321,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -632,11 +677,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="543576456"/>
-        <c:axId val="715987096"/>
+        <c:axId val="854201992"/>
+        <c:axId val="854203944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="543576456"/>
+        <c:axId val="854201992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -646,12 +691,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="715987096"/>
+        <c:crossAx val="854203944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="715987096"/>
+        <c:axId val="854203944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -662,14 +707,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="543576456"/>
+        <c:crossAx val="854201992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1380,11 +1424,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="716005784"/>
-        <c:axId val="715990440"/>
+        <c:axId val="854027704"/>
+        <c:axId val="872636248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="716005784"/>
+        <c:axId val="854027704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,12 +1438,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="715990440"/>
+        <c:crossAx val="872636248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="715990440"/>
+        <c:axId val="872636248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1410,7 +1454,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="716005784"/>
+        <c:crossAx val="854027704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1461,6 +1505,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1811,11 +1856,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168245336"/>
-        <c:axId val="715753832"/>
+        <c:axId val="872669080"/>
+        <c:axId val="872672040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168245336"/>
+        <c:axId val="872669080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1825,12 +1870,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="715753832"/>
+        <c:crossAx val="872672040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="715753832"/>
+        <c:axId val="872672040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1841,13 +1886,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168245336"/>
+        <c:crossAx val="872669080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2233,11 +2279,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="715134728"/>
-        <c:axId val="715714552"/>
+        <c:axId val="872714424"/>
+        <c:axId val="872717384"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="715134728"/>
+        <c:axId val="872714424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,12 +2293,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="715714552"/>
+        <c:crossAx val="872717384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="715714552"/>
+        <c:axId val="872717384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2263,7 +2309,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="715134728"/>
+        <c:crossAx val="872714424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2711,10 +2757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F92"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H87" sqref="H87"/>
+    <sheetView topLeftCell="A76" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92:F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4092,11 +4138,11 @@
         <v>-40</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" ref="E63:E92" si="4">B63*((A63)^3+C63*(A63))+D63</f>
+        <f t="shared" ref="E63:E91" si="4">B63*((A63)^3+C63*(A63))+D63</f>
         <v>7159100</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" ref="F63:F92" si="5">ROUND(E63,-2)</f>
+        <f t="shared" ref="F63:F91" si="5">ROUND(E63,-2)</f>
         <v>7159100</v>
       </c>
     </row>
@@ -4730,10 +4776,190 @@
         <v>-40</v>
       </c>
       <c r="E92" s="1">
-        <v>99999999</v>
+        <v>40000000</v>
       </c>
       <c r="F92" s="1">
-        <v>99999999</v>
+        <v>40000000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>30</v>
+      </c>
+      <c r="C93" s="1">
+        <v>5</v>
+      </c>
+      <c r="D93" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E93" s="1">
+        <v>50000000</v>
+      </c>
+      <c r="F93" s="1">
+        <v>50000000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>30</v>
+      </c>
+      <c r="C94" s="1">
+        <v>5</v>
+      </c>
+      <c r="D94" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E94" s="1">
+        <v>60000000</v>
+      </c>
+      <c r="F94" s="1">
+        <v>60000000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>30</v>
+      </c>
+      <c r="C95" s="1">
+        <v>5</v>
+      </c>
+      <c r="D95" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E95" s="1">
+        <v>70000000</v>
+      </c>
+      <c r="F95" s="1">
+        <v>70000000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>30</v>
+      </c>
+      <c r="C96" s="1">
+        <v>5</v>
+      </c>
+      <c r="D96" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E96" s="1">
+        <v>80000000</v>
+      </c>
+      <c r="F96" s="1">
+        <v>80000000</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>30</v>
+      </c>
+      <c r="C97" s="1">
+        <v>5</v>
+      </c>
+      <c r="D97" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E97" s="1">
+        <v>90000000</v>
+      </c>
+      <c r="F97" s="1">
+        <v>90000000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>30</v>
+      </c>
+      <c r="C98" s="1">
+        <v>5</v>
+      </c>
+      <c r="D98" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E98" s="1">
+        <v>100000000</v>
+      </c>
+      <c r="F98" s="1">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>30</v>
+      </c>
+      <c r="C99" s="1">
+        <v>5</v>
+      </c>
+      <c r="D99" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E99" s="1">
+        <v>110000000</v>
+      </c>
+      <c r="F99" s="1">
+        <v>110000000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>30</v>
+      </c>
+      <c r="C100" s="1">
+        <v>5</v>
+      </c>
+      <c r="D100" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E100" s="1">
+        <v>120000000</v>
+      </c>
+      <c r="F100" s="1">
+        <v>120000000</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>30</v>
+      </c>
+      <c r="C101" s="1">
+        <v>5</v>
+      </c>
+      <c r="D101" s="1">
+        <v>-40</v>
+      </c>
+      <c r="E101" s="1">
+        <v>130000000</v>
+      </c>
+      <c r="F101" s="1">
+        <v>130000000</v>
       </c>
     </row>
   </sheetData>
@@ -5889,10 +6115,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -5918,7 +6144,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -5940,7 +6166,6 @@
         <v>50</v>
       </c>
       <c r="F2" s="1">
-        <f>E2/1</f>
         <v>50</v>
       </c>
     </row>
@@ -5963,7 +6188,6 @@
         <v>100</v>
       </c>
       <c r="F3" s="1">
-        <f t="shared" ref="F3:F11" si="0">E3/1</f>
         <v>100</v>
       </c>
     </row>
@@ -5978,7 +6202,7 @@
         <v>26</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" ref="D4:D5" si="1">B4*(A4+1)^3+C4</f>
+        <f t="shared" ref="D4:D5" si="0">B4*(A4+1)^3+C4</f>
         <v>218</v>
       </c>
       <c r="E4" s="1">
@@ -5986,7 +6210,6 @@
         <v>200</v>
       </c>
       <c r="F4" s="1">
-        <f t="shared" si="0"/>
         <v>200</v>
       </c>
     </row>
@@ -6001,15 +6224,14 @@
         <v>26</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>401</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E51" si="2">ROUND(D5,-2)</f>
+        <f t="shared" ref="E5:E51" si="1">ROUND(D5,-2)</f>
         <v>400</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" si="0"/>
         <v>400</v>
       </c>
     </row>
@@ -6024,15 +6246,14 @@
         <v>26</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" ref="D6:D51" si="3">B6*(A6+1)^3+C6</f>
+        <f t="shared" ref="D6:D51" si="2">B6*(A6+1)^3+C6</f>
         <v>674</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>700</v>
       </c>
       <c r="F6" s="1">
-        <f t="shared" si="0"/>
         <v>700</v>
       </c>
     </row>
@@ -6047,15 +6268,14 @@
         <v>26</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1055</v>
       </c>
       <c r="E7" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1100</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" si="0"/>
         <v>1100</v>
       </c>
     </row>
@@ -6070,15 +6290,14 @@
         <v>26</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1562</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1600</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
     </row>
@@ -6093,15 +6312,14 @@
         <v>26</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2213</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2200</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="0"/>
         <v>2200</v>
       </c>
     </row>
@@ -6116,15 +6334,14 @@
         <v>26</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3026</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3000</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="0"/>
         <v>3000</v>
       </c>
     </row>
@@ -6139,15 +6356,14 @@
         <v>26</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>4019</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4000</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="0"/>
         <v>4000</v>
       </c>
     </row>
@@ -6162,16 +6378,15 @@
         <v>26</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>5210</v>
       </c>
       <c r="E12" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5200</v>
       </c>
       <c r="F12" s="1">
-        <f t="shared" ref="F12:F21" si="4">E12/2</f>
-        <v>2600</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -6185,16 +6400,15 @@
         <v>26</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>6617</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>6600</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" si="4"/>
-        <v>3300</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -6208,16 +6422,15 @@
         <v>26</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8258</v>
       </c>
       <c r="E14" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>8300</v>
       </c>
       <c r="F14" s="1">
-        <f t="shared" si="4"/>
-        <v>4150</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -6231,16 +6444,15 @@
         <v>26</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>10151</v>
       </c>
       <c r="E15" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>10200</v>
       </c>
       <c r="F15" s="1">
-        <f t="shared" si="4"/>
-        <v>5100</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -6254,16 +6466,15 @@
         <v>26</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>12314</v>
       </c>
       <c r="E16" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>12300</v>
       </c>
       <c r="F16" s="1">
-        <f t="shared" si="4"/>
-        <v>6150</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -6277,16 +6488,15 @@
         <v>26</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>14765</v>
       </c>
       <c r="E17" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>14800</v>
       </c>
       <c r="F17" s="1">
-        <f t="shared" si="4"/>
-        <v>7400</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -6300,16 +6510,15 @@
         <v>26</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17522</v>
       </c>
       <c r="E18" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17500</v>
       </c>
       <c r="F18" s="1">
-        <f t="shared" si="4"/>
-        <v>8750</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -6323,16 +6532,15 @@
         <v>26</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20603</v>
       </c>
       <c r="E19" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20600</v>
       </c>
       <c r="F19" s="1">
-        <f t="shared" si="4"/>
-        <v>10300</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -6346,16 +6554,15 @@
         <v>26</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>24026</v>
       </c>
       <c r="E20" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>24000</v>
       </c>
       <c r="F20" s="1">
-        <f t="shared" si="4"/>
-        <v>12000</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -6369,16 +6576,15 @@
         <v>26</v>
       </c>
       <c r="D21" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>27809</v>
       </c>
       <c r="E21" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>27800</v>
       </c>
       <c r="F21" s="1">
-        <f t="shared" si="4"/>
-        <v>13900</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -6392,16 +6598,15 @@
         <v>26</v>
       </c>
       <c r="D22" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>31970</v>
       </c>
       <c r="E22" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>32000</v>
       </c>
       <c r="F22" s="1">
-        <f>E22/3</f>
-        <v>10666.666666666666</v>
+        <v>9500</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -6415,16 +6620,15 @@
         <v>26</v>
       </c>
       <c r="D23" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>36527</v>
       </c>
       <c r="E23" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>36500</v>
       </c>
       <c r="F23" s="1">
-        <f t="shared" ref="F23:F31" si="5">E23/3</f>
-        <v>12166.666666666666</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -6438,16 +6642,15 @@
         <v>26</v>
       </c>
       <c r="D24" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>41498</v>
       </c>
       <c r="E24" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>41500</v>
       </c>
       <c r="F24" s="1">
-        <f t="shared" si="5"/>
-        <v>13833.333333333334</v>
+        <v>10500</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -6461,16 +6664,15 @@
         <v>26</v>
       </c>
       <c r="D25" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>46901</v>
       </c>
       <c r="E25" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>46900</v>
       </c>
       <c r="F25" s="1">
-        <f t="shared" si="5"/>
-        <v>15633.333333333334</v>
+        <v>11000</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -6484,16 +6686,15 @@
         <v>26</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>52754</v>
       </c>
       <c r="E26" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>52800</v>
       </c>
       <c r="F26" s="1">
-        <f t="shared" si="5"/>
-        <v>17600</v>
+        <v>11500</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -6507,16 +6708,15 @@
         <v>26</v>
       </c>
       <c r="D27" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>59075</v>
       </c>
       <c r="E27" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>59100</v>
       </c>
       <c r="F27" s="1">
-        <f t="shared" si="5"/>
-        <v>19700</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -6530,16 +6730,15 @@
         <v>26</v>
       </c>
       <c r="D28" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>65882</v>
       </c>
       <c r="E28" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>65900</v>
       </c>
       <c r="F28" s="1">
-        <f t="shared" si="5"/>
-        <v>21966.666666666668</v>
+        <v>12500</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -6553,16 +6752,15 @@
         <v>26</v>
       </c>
       <c r="D29" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>73193</v>
       </c>
       <c r="E29" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>73200</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" si="5"/>
-        <v>24400</v>
+        <v>13000</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -6576,16 +6774,15 @@
         <v>26</v>
       </c>
       <c r="D30" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>81026</v>
       </c>
       <c r="E30" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>81000</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="5"/>
-        <v>27000</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -6599,16 +6796,15 @@
         <v>26</v>
       </c>
       <c r="D31" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>89399</v>
       </c>
       <c r="E31" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>89400</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="5"/>
-        <v>29800</v>
+        <v>14000</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -6622,16 +6818,15 @@
         <v>26</v>
       </c>
       <c r="D32" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>98330</v>
       </c>
       <c r="E32" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98300</v>
       </c>
       <c r="F32" s="1">
-        <f>E32/4</f>
-        <v>24575</v>
+        <v>14500</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -6645,16 +6840,15 @@
         <v>26</v>
       </c>
       <c r="D33" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>107837</v>
       </c>
       <c r="E33" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>107800</v>
       </c>
       <c r="F33" s="1">
-        <f t="shared" ref="F33:F41" si="6">E33/4</f>
-        <v>26950</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -6668,16 +6862,15 @@
         <v>26</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>117938</v>
       </c>
       <c r="E34" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>117900</v>
       </c>
       <c r="F34" s="1">
-        <f t="shared" si="6"/>
-        <v>29475</v>
+        <v>15500</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -6691,16 +6884,15 @@
         <v>26</v>
       </c>
       <c r="D35" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>128651</v>
       </c>
       <c r="E35" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>128700</v>
       </c>
       <c r="F35" s="1">
-        <f t="shared" si="6"/>
-        <v>32175</v>
+        <v>16000</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -6714,16 +6906,15 @@
         <v>26</v>
       </c>
       <c r="D36" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>139994</v>
       </c>
       <c r="E36" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140000</v>
       </c>
       <c r="F36" s="1">
-        <f t="shared" si="6"/>
-        <v>35000</v>
+        <v>16500</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -6737,16 +6928,15 @@
         <v>26</v>
       </c>
       <c r="D37" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>151985</v>
       </c>
       <c r="E37" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>152000</v>
       </c>
       <c r="F37" s="1">
-        <f t="shared" si="6"/>
-        <v>38000</v>
+        <v>17000</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -6760,16 +6950,15 @@
         <v>26</v>
       </c>
       <c r="D38" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>164642</v>
       </c>
       <c r="E38" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>164600</v>
       </c>
       <c r="F38" s="1">
-        <f t="shared" si="6"/>
-        <v>41150</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -6783,16 +6972,15 @@
         <v>26</v>
       </c>
       <c r="D39" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>177983</v>
       </c>
       <c r="E39" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>178000</v>
       </c>
       <c r="F39" s="1">
-        <f t="shared" si="6"/>
-        <v>44500</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -6806,16 +6994,15 @@
         <v>26</v>
       </c>
       <c r="D40" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>192026</v>
       </c>
       <c r="E40" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>192000</v>
       </c>
       <c r="F40" s="1">
-        <f t="shared" si="6"/>
-        <v>48000</v>
+        <v>18500</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -6829,16 +7016,15 @@
         <v>26</v>
       </c>
       <c r="D41" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>206789</v>
       </c>
       <c r="E41" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>206800</v>
       </c>
       <c r="F41" s="1">
-        <f t="shared" si="6"/>
-        <v>51700</v>
+        <v>19000</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -6852,16 +7038,15 @@
         <v>26</v>
       </c>
       <c r="D42" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>222290</v>
       </c>
       <c r="E42" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>222300</v>
       </c>
       <c r="F42" s="1">
-        <f>E42/5</f>
-        <v>44460</v>
+        <v>19500</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -6875,16 +7060,15 @@
         <v>26</v>
       </c>
       <c r="D43" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>238547</v>
       </c>
       <c r="E43" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>238500</v>
       </c>
       <c r="F43" s="1">
-        <f t="shared" ref="F43:F51" si="7">E43/5</f>
-        <v>47700</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -6898,16 +7082,15 @@
         <v>26</v>
       </c>
       <c r="D44" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>255578</v>
       </c>
       <c r="E44" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>255600</v>
       </c>
       <c r="F44" s="1">
-        <f t="shared" si="7"/>
-        <v>51120</v>
+        <v>20500</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -6921,16 +7104,15 @@
         <v>26</v>
       </c>
       <c r="D45" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>273401</v>
       </c>
       <c r="E45" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>273400</v>
       </c>
       <c r="F45" s="1">
-        <f t="shared" si="7"/>
-        <v>54680</v>
+        <v>21000</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -6944,16 +7126,15 @@
         <v>26</v>
       </c>
       <c r="D46" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>292034</v>
       </c>
       <c r="E46" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>292000</v>
       </c>
       <c r="F46" s="1">
-        <f t="shared" si="7"/>
-        <v>58400</v>
+        <v>21500</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -6967,16 +7148,15 @@
         <v>26</v>
       </c>
       <c r="D47" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>311495</v>
       </c>
       <c r="E47" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>311500</v>
       </c>
       <c r="F47" s="1">
-        <f t="shared" si="7"/>
-        <v>62300</v>
+        <v>22000</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -6990,16 +7170,15 @@
         <v>26</v>
       </c>
       <c r="D48" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>331802</v>
       </c>
       <c r="E48" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>331800</v>
       </c>
       <c r="F48" s="1">
-        <f t="shared" si="7"/>
-        <v>66360</v>
+        <v>22500</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -7013,16 +7192,15 @@
         <v>26</v>
       </c>
       <c r="D49" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>352973</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>353000</v>
       </c>
       <c r="F49" s="1">
-        <f t="shared" si="7"/>
-        <v>70600</v>
+        <v>23000</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -7036,16 +7214,15 @@
         <v>26</v>
       </c>
       <c r="D50" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>375026</v>
       </c>
       <c r="E50" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>375000</v>
       </c>
       <c r="F50" s="1">
-        <f t="shared" si="7"/>
-        <v>75000</v>
+        <v>23500</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -7059,16 +7236,15 @@
         <v>26</v>
       </c>
       <c r="D51" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>397979</v>
       </c>
       <c r="E51" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>398000</v>
       </c>
       <c r="F51" s="1">
-        <f t="shared" si="7"/>
-        <v>79600</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -7082,15 +7258,15 @@
         <v>26</v>
       </c>
       <c r="D52" s="1">
-        <f t="shared" ref="D52:D81" si="8">B52*(A52+1)^3+C52</f>
+        <f t="shared" ref="D52:D81" si="3">B52*(A52+1)^3+C52</f>
         <v>421850</v>
       </c>
       <c r="E52" s="1">
-        <f t="shared" ref="E52:E81" si="9">ROUND(D52,-2)</f>
+        <f t="shared" ref="E52:E81" si="4">ROUND(D52,-2)</f>
         <v>421900</v>
       </c>
       <c r="F52" s="1">
-        <v>79600</v>
+        <v>24500</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7104,15 +7280,15 @@
         <v>26</v>
       </c>
       <c r="D53" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>446657</v>
       </c>
       <c r="E53" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>446700</v>
       </c>
       <c r="F53" s="1">
-        <v>79600</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -7126,15 +7302,15 @@
         <v>26</v>
       </c>
       <c r="D54" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>472418</v>
       </c>
       <c r="E54" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>472400</v>
       </c>
       <c r="F54" s="1">
-        <v>79600</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -7148,15 +7324,15 @@
         <v>26</v>
       </c>
       <c r="D55" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>499151</v>
       </c>
       <c r="E55" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>499200</v>
       </c>
       <c r="F55" s="1">
-        <v>79600</v>
+        <v>26000</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -7170,15 +7346,15 @@
         <v>26</v>
       </c>
       <c r="D56" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>526874</v>
       </c>
       <c r="E56" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>526900</v>
       </c>
       <c r="F56" s="1">
-        <v>79600</v>
+        <v>26500</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7192,15 +7368,15 @@
         <v>26</v>
       </c>
       <c r="D57" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>555605</v>
       </c>
       <c r="E57" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>555600</v>
       </c>
       <c r="F57" s="1">
-        <v>79600</v>
+        <v>27000</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -7214,15 +7390,15 @@
         <v>26</v>
       </c>
       <c r="D58" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>585362</v>
       </c>
       <c r="E58" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>585400</v>
       </c>
       <c r="F58" s="1">
-        <v>79600</v>
+        <v>27500</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -7236,15 +7412,15 @@
         <v>26</v>
       </c>
       <c r="D59" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>616163</v>
       </c>
       <c r="E59" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>616200</v>
       </c>
       <c r="F59" s="1">
-        <v>79600</v>
+        <v>28000</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -7258,15 +7434,15 @@
         <v>26</v>
       </c>
       <c r="D60" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>648026</v>
       </c>
       <c r="E60" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>648000</v>
       </c>
       <c r="F60" s="1">
-        <v>79600</v>
+        <v>28500</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -7280,15 +7456,15 @@
         <v>26</v>
       </c>
       <c r="D61" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>680969</v>
       </c>
       <c r="E61" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>681000</v>
       </c>
       <c r="F61" s="1">
-        <v>79600</v>
+        <v>29000</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -7302,15 +7478,15 @@
         <v>26</v>
       </c>
       <c r="D62" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>715010</v>
       </c>
       <c r="E62" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>715000</v>
       </c>
       <c r="F62" s="1">
-        <v>79600</v>
+        <v>29500</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -7324,15 +7500,15 @@
         <v>26</v>
       </c>
       <c r="D63" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>750167</v>
       </c>
       <c r="E63" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>750200</v>
       </c>
       <c r="F63" s="1">
-        <v>79600</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -7346,15 +7522,15 @@
         <v>26</v>
       </c>
       <c r="D64" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>786458</v>
       </c>
       <c r="E64" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>786500</v>
       </c>
       <c r="F64" s="1">
-        <v>79600</v>
+        <v>30500</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -7368,15 +7544,15 @@
         <v>26</v>
       </c>
       <c r="D65" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>823901</v>
       </c>
       <c r="E65" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>823900</v>
       </c>
       <c r="F65" s="1">
-        <v>79600</v>
+        <v>31000</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -7390,15 +7566,15 @@
         <v>26</v>
       </c>
       <c r="D66" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>862514</v>
       </c>
       <c r="E66" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>862500</v>
       </c>
       <c r="F66" s="1">
-        <v>79600</v>
+        <v>31500</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -7412,15 +7588,15 @@
         <v>26</v>
       </c>
       <c r="D67" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>902315</v>
       </c>
       <c r="E67" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>902300</v>
       </c>
       <c r="F67" s="1">
-        <v>79600</v>
+        <v>32000</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -7434,15 +7610,15 @@
         <v>26</v>
       </c>
       <c r="D68" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>943322</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>943300</v>
       </c>
       <c r="F68" s="1">
-        <v>79600</v>
+        <v>32500</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -7456,15 +7632,15 @@
         <v>26</v>
       </c>
       <c r="D69" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>985553</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>985600</v>
       </c>
       <c r="F69" s="1">
-        <v>79600</v>
+        <v>33000</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -7478,15 +7654,15 @@
         <v>26</v>
       </c>
       <c r="D70" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1029026</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1029000</v>
       </c>
       <c r="F70" s="1">
-        <v>79600</v>
+        <v>33500</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -7500,15 +7676,15 @@
         <v>26</v>
       </c>
       <c r="D71" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1073759</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1073800</v>
       </c>
       <c r="F71" s="1">
-        <v>79600</v>
+        <v>34000</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -7522,15 +7698,15 @@
         <v>26</v>
       </c>
       <c r="D72" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1119770</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1119800</v>
       </c>
       <c r="F72" s="1">
-        <v>79600</v>
+        <v>34500</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -7544,15 +7720,15 @@
         <v>26</v>
       </c>
       <c r="D73" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1167077</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1167100</v>
       </c>
       <c r="F73" s="1">
-        <v>79600</v>
+        <v>35000</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -7566,15 +7742,15 @@
         <v>26</v>
       </c>
       <c r="D74" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1215698</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1215700</v>
       </c>
       <c r="F74" s="1">
-        <v>79600</v>
+        <v>35500</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -7588,15 +7764,15 @@
         <v>26</v>
       </c>
       <c r="D75" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1265651</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1265700</v>
       </c>
       <c r="F75" s="1">
-        <v>79600</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -7610,15 +7786,15 @@
         <v>26</v>
       </c>
       <c r="D76" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1316954</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1317000</v>
       </c>
       <c r="F76" s="1">
-        <v>79600</v>
+        <v>36500</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -7632,15 +7808,15 @@
         <v>26</v>
       </c>
       <c r="D77" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1369625</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1369600</v>
       </c>
       <c r="F77" s="1">
-        <v>79600</v>
+        <v>37000</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -7654,15 +7830,15 @@
         <v>26</v>
       </c>
       <c r="D78" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1423682</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1423700</v>
       </c>
       <c r="F78" s="1">
-        <v>79600</v>
+        <v>37500</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -7676,15 +7852,15 @@
         <v>26</v>
       </c>
       <c r="D79" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1479143</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1479100</v>
       </c>
       <c r="F79" s="1">
-        <v>79600</v>
+        <v>38000</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -7698,15 +7874,15 @@
         <v>26</v>
       </c>
       <c r="D80" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1536026</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1536000</v>
       </c>
       <c r="F80" s="1">
-        <v>79600</v>
+        <v>38500</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -7720,20 +7896,461 @@
         <v>26</v>
       </c>
       <c r="D81" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v>1594349</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="4"/>
         <v>1594300</v>
       </c>
       <c r="F81" s="1">
-        <v>79600</v>
+        <v>39000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1">
+        <v>26</v>
+      </c>
+      <c r="D82" s="1">
+        <f t="shared" ref="D82:D101" si="5">B82*(A82+1)^3+C82</f>
+        <v>1654130</v>
+      </c>
+      <c r="E82" s="1">
+        <f t="shared" ref="E82:E101" si="6">ROUND(D82,-2)</f>
+        <v>1654100</v>
+      </c>
+      <c r="F82" s="1">
+        <v>39500</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1">
+        <v>3</v>
+      </c>
+      <c r="C83" s="1">
+        <v>26</v>
+      </c>
+      <c r="D83" s="1">
+        <f t="shared" si="5"/>
+        <v>1715387</v>
+      </c>
+      <c r="E83" s="1">
+        <f t="shared" si="6"/>
+        <v>1715400</v>
+      </c>
+      <c r="F83" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1">
+        <v>26</v>
+      </c>
+      <c r="D84" s="1">
+        <f t="shared" si="5"/>
+        <v>1778138</v>
+      </c>
+      <c r="E84" s="1">
+        <f t="shared" si="6"/>
+        <v>1778100</v>
+      </c>
+      <c r="F84" s="1">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1">
+        <v>26</v>
+      </c>
+      <c r="D85" s="1">
+        <f t="shared" si="5"/>
+        <v>1842401</v>
+      </c>
+      <c r="E85" s="1">
+        <f t="shared" si="6"/>
+        <v>1842400</v>
+      </c>
+      <c r="F85" s="1">
+        <v>41000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1">
+        <v>26</v>
+      </c>
+      <c r="D86" s="1">
+        <f t="shared" si="5"/>
+        <v>1908194</v>
+      </c>
+      <c r="E86" s="1">
+        <f t="shared" si="6"/>
+        <v>1908200</v>
+      </c>
+      <c r="F86" s="1">
+        <v>41500</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1">
+        <v>26</v>
+      </c>
+      <c r="D87" s="1">
+        <f t="shared" si="5"/>
+        <v>1975535</v>
+      </c>
+      <c r="E87" s="1">
+        <f t="shared" si="6"/>
+        <v>1975500</v>
+      </c>
+      <c r="F87" s="1">
+        <v>42000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1">
+        <v>26</v>
+      </c>
+      <c r="D88" s="1">
+        <f t="shared" si="5"/>
+        <v>2044442</v>
+      </c>
+      <c r="E88" s="1">
+        <f t="shared" si="6"/>
+        <v>2044400</v>
+      </c>
+      <c r="F88" s="1">
+        <v>42500</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1">
+        <v>26</v>
+      </c>
+      <c r="D89" s="1">
+        <f t="shared" si="5"/>
+        <v>2114933</v>
+      </c>
+      <c r="E89" s="1">
+        <f t="shared" si="6"/>
+        <v>2114900</v>
+      </c>
+      <c r="F89" s="1">
+        <v>43000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1">
+        <v>3</v>
+      </c>
+      <c r="C90" s="1">
+        <v>26</v>
+      </c>
+      <c r="D90" s="1">
+        <f t="shared" si="5"/>
+        <v>2187026</v>
+      </c>
+      <c r="E90" s="1">
+        <f t="shared" si="6"/>
+        <v>2187000</v>
+      </c>
+      <c r="F90" s="1">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1">
+        <v>26</v>
+      </c>
+      <c r="D91" s="1">
+        <f t="shared" si="5"/>
+        <v>2260739</v>
+      </c>
+      <c r="E91" s="1">
+        <f t="shared" si="6"/>
+        <v>2260700</v>
+      </c>
+      <c r="F91" s="1">
+        <v>44000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1">
+        <v>26</v>
+      </c>
+      <c r="D92" s="1">
+        <f t="shared" si="5"/>
+        <v>2336090</v>
+      </c>
+      <c r="E92" s="1">
+        <f t="shared" si="6"/>
+        <v>2336100</v>
+      </c>
+      <c r="F92" s="1">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1">
+        <v>3</v>
+      </c>
+      <c r="C93" s="1">
+        <v>26</v>
+      </c>
+      <c r="D93" s="1">
+        <f t="shared" si="5"/>
+        <v>2413097</v>
+      </c>
+      <c r="E93" s="1">
+        <f t="shared" si="6"/>
+        <v>2413100</v>
+      </c>
+      <c r="F93" s="1">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1">
+        <v>26</v>
+      </c>
+      <c r="D94" s="1">
+        <f t="shared" si="5"/>
+        <v>2491778</v>
+      </c>
+      <c r="E94" s="1">
+        <f t="shared" si="6"/>
+        <v>2491800</v>
+      </c>
+      <c r="F94" s="1">
+        <v>45500</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1">
+        <v>26</v>
+      </c>
+      <c r="D95" s="1">
+        <f t="shared" si="5"/>
+        <v>2572151</v>
+      </c>
+      <c r="E95" s="1">
+        <f t="shared" si="6"/>
+        <v>2572200</v>
+      </c>
+      <c r="F95" s="1">
+        <v>46000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1">
+        <v>3</v>
+      </c>
+      <c r="C96" s="1">
+        <v>26</v>
+      </c>
+      <c r="D96" s="1">
+        <f t="shared" si="5"/>
+        <v>2654234</v>
+      </c>
+      <c r="E96" s="1">
+        <f t="shared" si="6"/>
+        <v>2654200</v>
+      </c>
+      <c r="F96" s="1">
+        <v>46500</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1">
+        <v>3</v>
+      </c>
+      <c r="C97" s="1">
+        <v>26</v>
+      </c>
+      <c r="D97" s="1">
+        <f t="shared" si="5"/>
+        <v>2738045</v>
+      </c>
+      <c r="E97" s="1">
+        <f t="shared" si="6"/>
+        <v>2738000</v>
+      </c>
+      <c r="F97" s="1">
+        <v>47000</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1">
+        <v>3</v>
+      </c>
+      <c r="C98" s="1">
+        <v>26</v>
+      </c>
+      <c r="D98" s="1">
+        <f t="shared" si="5"/>
+        <v>2823602</v>
+      </c>
+      <c r="E98" s="1">
+        <f t="shared" si="6"/>
+        <v>2823600</v>
+      </c>
+      <c r="F98" s="1">
+        <v>47500</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1">
+        <v>3</v>
+      </c>
+      <c r="C99" s="1">
+        <v>26</v>
+      </c>
+      <c r="D99" s="1">
+        <f t="shared" si="5"/>
+        <v>2910923</v>
+      </c>
+      <c r="E99" s="1">
+        <f t="shared" si="6"/>
+        <v>2910900</v>
+      </c>
+      <c r="F99" s="1">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="1">
+        <v>3</v>
+      </c>
+      <c r="C100" s="1">
+        <v>26</v>
+      </c>
+      <c r="D100" s="1">
+        <f t="shared" si="5"/>
+        <v>3000026</v>
+      </c>
+      <c r="E100" s="1">
+        <f t="shared" si="6"/>
+        <v>3000000</v>
+      </c>
+      <c r="F100" s="1">
+        <v>48500</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1">
+        <v>26</v>
+      </c>
+      <c r="D101" s="1">
+        <f t="shared" si="5"/>
+        <v>3090929</v>
+      </c>
+      <c r="E101" s="1">
+        <f t="shared" si="6"/>
+        <v>3090900</v>
+      </c>
+      <c r="F101" s="1">
+        <v>49000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
